--- a/HandAvg_byLevel_output.xlsx
+++ b/HandAvg_byLevel_output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="13">
   <si>
     <t>Class</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>Std. Dev.</t>
+  </si>
+  <si>
+    <t>L_StdDev</t>
+  </si>
+  <si>
+    <t>H_StdDev</t>
   </si>
   <si>
     <t>Brute</t>
@@ -404,13 +410,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,13 +432,19 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -446,13 +458,19 @@
       <c r="F2">
         <v>3.995918970781643</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>36.00816205843671</v>
+      </c>
+      <c r="H2">
+        <v>51.99183794156328</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -466,13 +484,19 @@
       <c r="F3">
         <v>4.326363910278398</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>34.7639388461099</v>
+      </c>
+      <c r="H3">
+        <v>52.0693944872235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -486,13 +510,19 @@
       <c r="F4">
         <v>4.564459401399224</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>34.37406627182834</v>
+      </c>
+      <c r="H4">
+        <v>52.63190387742523</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -506,13 +536,19 @@
       <c r="F5">
         <v>5.266695327977879</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>33.76814308637557</v>
+      </c>
+      <c r="H5">
+        <v>54.83492439828709</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -526,13 +562,19 @@
       <c r="F6">
         <v>5.377058245078711</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>32.89235031926444</v>
+      </c>
+      <c r="H6">
+        <v>54.40058329957929</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -546,13 +588,19 @@
       <c r="F7">
         <v>5.583826694255356</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <v>31.86922713396314</v>
+      </c>
+      <c r="H7">
+        <v>54.20453391098457</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -566,13 +614,19 @@
       <c r="F8">
         <v>5.542225871163073</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <v>31.04878846453337</v>
+      </c>
+      <c r="H8">
+        <v>53.21769194918566</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -586,13 +640,19 @@
       <c r="F9">
         <v>5.616149243385935</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <v>29.77489734489821</v>
+      </c>
+      <c r="H9">
+        <v>52.23949431844194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -606,13 +666,19 @@
       <c r="F10">
         <v>5.679533298694689</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <v>29.93655304294369</v>
+      </c>
+      <c r="H10">
+        <v>52.65468623772245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -626,13 +692,19 @@
       <c r="F11">
         <v>3.057242670440445</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <v>38.88551465911913</v>
+      </c>
+      <c r="H11">
+        <v>51.11448534088091</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -646,13 +718,19 @@
       <c r="F12">
         <v>3.498686141687275</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <v>39.10977057376829</v>
+      </c>
+      <c r="H12">
+        <v>53.10451514051738</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -666,13 +744,19 @@
       <c r="F13">
         <v>3.957028308336987</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13">
+        <v>38.42507381810864</v>
+      </c>
+      <c r="H13">
+        <v>54.25318705145659</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -686,13 +770,19 @@
       <c r="F14">
         <v>4.552776385209506</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14">
+        <v>37.70347762395428</v>
+      </c>
+      <c r="H14">
+        <v>55.9145831647923</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -706,13 +796,19 @@
       <c r="F15">
         <v>4.735900462381395</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>37.92711541134771</v>
+      </c>
+      <c r="H15">
+        <v>56.87071726087329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -726,13 +822,19 @@
       <c r="F16">
         <v>4.864348645718177</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16">
+        <v>38.15655815774394</v>
+      </c>
+      <c r="H16">
+        <v>57.61395274061665</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -746,13 +848,19 @@
       <c r="F17">
         <v>5.348468015658103</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>37.83985356587874</v>
+      </c>
+      <c r="H17">
+        <v>59.23372562851115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C18">
         <v>8</v>
@@ -766,13 +874,19 @@
       <c r="F18">
         <v>5.343758221101175</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>37.37548544449908</v>
+      </c>
+      <c r="H18">
+        <v>58.75051832890379</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C19">
         <v>9</v>
@@ -786,13 +900,19 @@
       <c r="F19">
         <v>5.508587457583743</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>37.59518791987547</v>
+      </c>
+      <c r="H19">
+        <v>59.62953775021045</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -806,13 +926,19 @@
       <c r="F20">
         <v>5.670244865018467</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20">
+        <v>36.65951026996306</v>
+      </c>
+      <c r="H20">
+        <v>59.34048973003694</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -826,13 +952,19 @@
       <c r="F21">
         <v>6.424777110712099</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21">
+        <v>34.9504457785758</v>
+      </c>
+      <c r="H21">
+        <v>60.6495542214242</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -846,13 +978,19 @@
       <c r="F22">
         <v>6.813244528449447</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>36.41916311701415</v>
+      </c>
+      <c r="H22">
+        <v>63.67214123081193</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -866,13 +1004,19 @@
       <c r="F23">
         <v>7.534263413915719</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>35.56987579798913</v>
+      </c>
+      <c r="H23">
+        <v>65.70692945365201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -886,13 +1030,19 @@
       <c r="F24">
         <v>7.568254902298078</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24">
+        <v>36.25677330902595</v>
+      </c>
+      <c r="H24">
+        <v>66.52979291821825</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C25">
         <v>6</v>
@@ -906,13 +1056,19 @@
       <c r="F25">
         <v>7.847455755772852</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25">
+        <v>37.29943877094017</v>
+      </c>
+      <c r="H25">
+        <v>68.68926179403158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C26">
         <v>7</v>
@@ -926,13 +1082,19 @@
       <c r="F26">
         <v>7.77985740873035</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26">
+        <v>38.94694385879446</v>
+      </c>
+      <c r="H26">
+        <v>70.06637349371586</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C27">
         <v>8</v>
@@ -946,13 +1108,19 @@
       <c r="F27">
         <v>7.787295728912951</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>40.46364843809579</v>
+      </c>
+      <c r="H27">
+        <v>71.61283135374759</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C28">
         <v>9</v>
@@ -966,13 +1134,19 @@
       <c r="F28">
         <v>7.908396122144329</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28">
+        <v>39.07025968825946</v>
+      </c>
+      <c r="H28">
+        <v>70.70384417683678</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -986,13 +1160,19 @@
       <c r="F29">
         <v>5.328066907685364</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29">
+        <v>25.67719951796262</v>
+      </c>
+      <c r="H29">
+        <v>46.98946714870408</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -1006,13 +1186,19 @@
       <c r="F30">
         <v>6.979248324687199</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30">
+        <v>23.66271547183774</v>
+      </c>
+      <c r="H30">
+        <v>51.57970877058653</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C31">
         <v>3</v>
@@ -1026,13 +1212,19 @@
       <c r="F31">
         <v>7.68260713623516</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31">
+        <v>23.49788096562489</v>
+      </c>
+      <c r="H31">
+        <v>54.22830951056552</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -1046,13 +1238,19 @@
       <c r="F32">
         <v>8.095854482898568</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32">
+        <v>22.623300465623</v>
+      </c>
+      <c r="H32">
+        <v>55.00671839721727</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -1066,13 +1264,19 @@
       <c r="F33">
         <v>8.55977269126641</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33">
+        <v>22.56642135343389</v>
+      </c>
+      <c r="H33">
+        <v>56.80551211849953</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -1086,13 +1290,19 @@
       <c r="F34">
         <v>8.883495028221848</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34">
+        <v>23.6607663617628</v>
+      </c>
+      <c r="H34">
+        <v>59.1947464746502</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C35">
         <v>7</v>
@@ -1106,13 +1316,19 @@
       <c r="F35">
         <v>8.882491660518927</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>22.95135272808236</v>
+      </c>
+      <c r="H35">
+        <v>58.48131937015807</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C36">
         <v>8</v>
@@ -1126,13 +1342,19 @@
       <c r="F36">
         <v>8.992201781031198</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36">
+        <v>23.49354124615137</v>
+      </c>
+      <c r="H36">
+        <v>59.46234837027617</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C37">
         <v>9</v>
@@ -1146,13 +1368,19 @@
       <c r="F37">
         <v>9.601515658329955</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>23.08283227808471</v>
+      </c>
+      <c r="H37">
+        <v>61.48889491140453</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -1166,13 +1394,19 @@
       <c r="F38">
         <v>3.04183559140866</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38">
+        <v>48.05918596003985</v>
+      </c>
+      <c r="H38">
+        <v>60.22652832567449</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C39">
         <v>2</v>
@@ -1186,13 +1420,19 @@
       <c r="F39">
         <v>3.906663431211801</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39">
+        <v>46.24161819252152</v>
+      </c>
+      <c r="H39">
+        <v>61.86827191736872</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -1206,13 +1446,19 @@
       <c r="F40">
         <v>4.148660848162105</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="G40">
+        <v>44.34282296913705</v>
+      </c>
+      <c r="H40">
+        <v>60.93746636178548</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -1226,13 +1472,19 @@
       <c r="F41">
         <v>4.797154543059506</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G41">
+        <v>42.52133717238425</v>
+      </c>
+      <c r="H41">
+        <v>61.70995534462227</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -1246,13 +1498,19 @@
       <c r="F42">
         <v>4.823553655050871</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <v>41.55206970404696</v>
+      </c>
+      <c r="H42">
+        <v>60.84628432425045</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -1266,13 +1524,19 @@
       <c r="F43">
         <v>5.135666606753321</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="G43">
+        <v>40.60379041771981</v>
+      </c>
+      <c r="H43">
+        <v>61.14645684473309</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C44">
         <v>7</v>
@@ -1286,13 +1550,19 @@
       <c r="F44">
         <v>5.199072413396978</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="G44">
+        <v>39.66440916969023</v>
+      </c>
+      <c r="H44">
+        <v>60.46069882327815</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C45">
         <v>8</v>
@@ -1306,13 +1576,19 @@
       <c r="F45">
         <v>5.432924695029299</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>39.39563448576035</v>
+      </c>
+      <c r="H45">
+        <v>61.12733326587755</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C46">
         <v>9</v>
@@ -1326,13 +1602,19 @@
       <c r="F46">
         <v>5.550569707844106</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="G46">
+        <v>39.35496818137072</v>
+      </c>
+      <c r="H46">
+        <v>61.55724701274715</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -1346,13 +1628,19 @@
       <c r="F47">
         <v>4.361505020733547</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="G47">
+        <v>36.81545149699443</v>
+      </c>
+      <c r="H47">
+        <v>54.26147157992861</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -1366,13 +1654,19 @@
       <c r="F48">
         <v>5.818534624974652</v>
       </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="G48">
+        <v>33.98152049364049</v>
+      </c>
+      <c r="H48">
+        <v>57.2556589935391</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C49">
         <v>3</v>
@@ -1386,13 +1680,19 @@
       <c r="F49">
         <v>6.290869997846061</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>32.97727263346981</v>
+      </c>
+      <c r="H49">
+        <v>58.14075262485404</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -1406,13 +1706,19 @@
       <c r="F50">
         <v>6.763226537490131</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="G50">
+        <v>31.45979043610986</v>
+      </c>
+      <c r="H50">
+        <v>58.51269658607038</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -1426,13 +1732,19 @@
       <c r="F51">
         <v>7.180702218623521</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="G51">
+        <v>30.52589035218924</v>
+      </c>
+      <c r="H51">
+        <v>59.24869922668333</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C52">
         <v>6</v>
@@ -1446,13 +1758,19 @@
       <c r="F52">
         <v>7.2058092879052</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>29.30214365120575</v>
+      </c>
+      <c r="H52">
+        <v>58.12538080282656</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C53">
         <v>7</v>
@@ -1466,13 +1784,19 @@
       <c r="F53">
         <v>7.517108247257609</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="G53">
+        <v>30.62838964451606</v>
+      </c>
+      <c r="H53">
+        <v>60.69682263354649</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C54">
         <v>8</v>
@@ -1486,13 +1810,19 @@
       <c r="F54">
         <v>7.866432599330802</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="G54">
+        <v>28.7620578814935</v>
+      </c>
+      <c r="H54">
+        <v>60.22778827881672</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C55">
         <v>9</v>
@@ -1505,6 +1835,12 @@
       </c>
       <c r="F55">
         <v>8.122715872112391</v>
+      </c>
+      <c r="G55">
+        <v>29.4546242900485</v>
+      </c>
+      <c r="H55">
+        <v>61.94548777849806</v>
       </c>
     </row>
   </sheetData>

--- a/HandAvg_byLevel_output.xlsx
+++ b/HandAvg_byLevel_output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="23">
   <si>
     <t>Class</t>
   </si>
@@ -31,10 +31,16 @@
     <t>Std. Dev.</t>
   </si>
   <si>
-    <t>L_StdDev</t>
+    <t>L_1StdDev</t>
   </si>
   <si>
-    <t>H_StdDev</t>
+    <t>L_2StdDev</t>
+  </si>
+  <si>
+    <t>U_1StdDev</t>
+  </si>
+  <si>
+    <t>U_2StdDev</t>
   </si>
   <si>
     <t>Brute</t>
@@ -53,6 +59,30 @@
   </si>
   <si>
     <t>Mindthief</t>
+  </si>
+  <si>
+    <t>Soothsinger</t>
+  </si>
+  <si>
+    <t>Summoner</t>
+  </si>
+  <si>
+    <t>Quartermaster</t>
+  </si>
+  <si>
+    <t>Sunkeeper</t>
+  </si>
+  <si>
+    <t>Plagueherald</t>
+  </si>
+  <si>
+    <t>Beast Tyrant</t>
+  </si>
+  <si>
+    <t>Doomstalker</t>
+  </si>
+  <si>
+    <t>Elementalist</t>
   </si>
 </sst>
 </file>
@@ -410,13 +440,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:J85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,13 +468,19 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -459,18 +495,24 @@
         <v>3.995918970781643</v>
       </c>
       <c r="G2">
+        <v>40.00408102921835</v>
+      </c>
+      <c r="H2">
         <v>36.00816205843671</v>
       </c>
-      <c r="H2">
+      <c r="I2">
+        <v>47.99591897078164</v>
+      </c>
+      <c r="J2">
         <v>51.99183794156328</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -485,18 +527,24 @@
         <v>4.326363910278398</v>
       </c>
       <c r="G3">
+        <v>39.0903027563883</v>
+      </c>
+      <c r="H3">
         <v>34.7639388461099</v>
       </c>
-      <c r="H3">
+      <c r="I3">
+        <v>47.7430305769451</v>
+      </c>
+      <c r="J3">
         <v>52.0693944872235</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -511,18 +559,24 @@
         <v>4.564459401399224</v>
       </c>
       <c r="G4">
+        <v>38.93852567322756</v>
+      </c>
+      <c r="H4">
         <v>34.37406627182834</v>
       </c>
-      <c r="H4">
+      <c r="I4">
+        <v>48.06744447602601</v>
+      </c>
+      <c r="J4">
         <v>52.63190387742523</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -537,18 +591,24 @@
         <v>5.266695327977879</v>
       </c>
       <c r="G5">
+        <v>39.03483841435345</v>
+      </c>
+      <c r="H5">
         <v>33.76814308637557</v>
       </c>
-      <c r="H5">
+      <c r="I5">
+        <v>49.56822907030921</v>
+      </c>
+      <c r="J5">
         <v>54.83492439828709</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -563,18 +623,24 @@
         <v>5.377058245078711</v>
       </c>
       <c r="G6">
+        <v>38.26940856434315</v>
+      </c>
+      <c r="H6">
         <v>32.89235031926444</v>
       </c>
-      <c r="H6">
+      <c r="I6">
+        <v>49.02352505450058</v>
+      </c>
+      <c r="J6">
         <v>54.40058329957929</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -589,1258 +655,2512 @@
         <v>5.583826694255356</v>
       </c>
       <c r="G7">
+        <v>37.45305382821849</v>
+      </c>
+      <c r="H7">
         <v>31.86922713396314</v>
       </c>
-      <c r="H7">
+      <c r="I7">
+        <v>48.62070721672921</v>
+      </c>
+      <c r="J7">
         <v>54.20453391098457</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>2405689</v>
+        <v>455</v>
       </c>
       <c r="E8">
-        <v>42.13324020685951</v>
+        <v>45.00000000000002</v>
       </c>
       <c r="F8">
-        <v>5.542225871163073</v>
+        <v>3.057242670440445</v>
       </c>
       <c r="G8">
-        <v>31.04878846453337</v>
+        <v>41.94275732955958</v>
       </c>
       <c r="H8">
-        <v>53.21769194918566</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>38.88551465911913</v>
+      </c>
+      <c r="I8">
+        <v>48.05724267044047</v>
+      </c>
+      <c r="J8">
+        <v>51.11448534088091</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>6806371</v>
+        <v>3185</v>
       </c>
       <c r="E9">
-        <v>41.00719583167007</v>
+        <v>46.10714285714283</v>
       </c>
       <c r="F9">
-        <v>5.616149243385935</v>
+        <v>3.498686141687275</v>
       </c>
       <c r="G9">
-        <v>29.77489734489821</v>
+        <v>42.60845671545556</v>
       </c>
       <c r="H9">
-        <v>52.23949431844194</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>39.10977057376829</v>
+      </c>
+      <c r="I9">
+        <v>49.60582899883011</v>
+      </c>
+      <c r="J9">
+        <v>53.10451514051738</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>17178772</v>
+        <v>20930</v>
       </c>
       <c r="E10">
-        <v>41.29561964033307</v>
+        <v>46.33913043478262</v>
       </c>
       <c r="F10">
-        <v>5.679533298694689</v>
+        <v>3.957028308336987</v>
       </c>
       <c r="G10">
-        <v>29.93655304294369</v>
+        <v>42.38210212644563</v>
       </c>
       <c r="H10">
-        <v>52.65468623772245</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>38.42507381810864</v>
+      </c>
+      <c r="I10">
+        <v>50.29615874311961</v>
+      </c>
+      <c r="J10">
+        <v>54.25318705145659</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>455</v>
+        <v>120757</v>
       </c>
       <c r="E11">
-        <v>45.00000000000002</v>
+        <v>46.80903039437329</v>
       </c>
       <c r="F11">
-        <v>3.057242670440445</v>
+        <v>4.552776385209506</v>
       </c>
       <c r="G11">
-        <v>38.88551465911913</v>
+        <v>42.25625400916378</v>
       </c>
       <c r="H11">
-        <v>51.11448534088091</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>37.70347762395428</v>
+      </c>
+      <c r="I11">
+        <v>51.36180677958279</v>
+      </c>
+      <c r="J11">
+        <v>55.9145831647923</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>3185</v>
+        <v>619411</v>
       </c>
       <c r="E12">
-        <v>46.10714285714283</v>
+        <v>47.3989163361105</v>
       </c>
       <c r="F12">
-        <v>3.498686141687275</v>
+        <v>4.735900462381395</v>
       </c>
       <c r="G12">
-        <v>39.10977057376829</v>
+        <v>42.66301587372911</v>
       </c>
       <c r="H12">
-        <v>53.10451514051738</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>37.92711541134771</v>
+      </c>
+      <c r="I12">
+        <v>52.1348167984919</v>
+      </c>
+      <c r="J12">
+        <v>56.87071726087329</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D13">
-        <v>20930</v>
+        <v>2765997</v>
       </c>
       <c r="E13">
-        <v>46.33913043478262</v>
+        <v>47.88525544918029</v>
       </c>
       <c r="F13">
-        <v>3.957028308336987</v>
+        <v>4.864348645718177</v>
       </c>
       <c r="G13">
-        <v>38.42507381810864</v>
+        <v>43.02090680346211</v>
       </c>
       <c r="H13">
-        <v>54.25318705145659</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>38.15655815774394</v>
+      </c>
+      <c r="I13">
+        <v>52.74960409489847</v>
+      </c>
+      <c r="J13">
+        <v>57.61395274061665</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>120757</v>
+        <v>165</v>
       </c>
       <c r="E14">
-        <v>46.80903039437329</v>
+        <v>48</v>
       </c>
       <c r="F14">
-        <v>4.552776385209506</v>
+        <v>5.670244865018467</v>
       </c>
       <c r="G14">
-        <v>37.70347762395428</v>
+        <v>42.32975513498153</v>
       </c>
       <c r="H14">
-        <v>55.9145831647923</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>36.65951026996306</v>
+      </c>
+      <c r="I14">
+        <v>53.67024486501847</v>
+      </c>
+      <c r="J14">
+        <v>59.34048973003694</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>619411</v>
+        <v>825</v>
       </c>
       <c r="E15">
-        <v>47.3989163361105</v>
+        <v>47.8</v>
       </c>
       <c r="F15">
-        <v>4.735900462381395</v>
+        <v>6.424777110712099</v>
       </c>
       <c r="G15">
-        <v>37.92711541134771</v>
+        <v>41.3752228892879</v>
       </c>
       <c r="H15">
-        <v>56.87071726087329</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>34.9504457785758</v>
+      </c>
+      <c r="I15">
+        <v>54.2247771107121</v>
+      </c>
+      <c r="J15">
+        <v>60.6495542214242</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D16">
-        <v>2765997</v>
+        <v>3795</v>
       </c>
       <c r="E16">
-        <v>47.88525544918029</v>
+        <v>50.04565217391304</v>
       </c>
       <c r="F16">
-        <v>4.864348645718177</v>
+        <v>6.813244528449447</v>
       </c>
       <c r="G16">
-        <v>38.15655815774394</v>
+        <v>43.2324076454636</v>
       </c>
       <c r="H16">
-        <v>57.61395274061665</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>36.41916311701415</v>
+      </c>
+      <c r="I16">
+        <v>56.85889670236249</v>
+      </c>
+      <c r="J16">
+        <v>63.67214123081193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D17">
-        <v>10765430</v>
+        <v>15081</v>
       </c>
       <c r="E17">
-        <v>48.53678959719495</v>
+        <v>50.63840262582057</v>
       </c>
       <c r="F17">
-        <v>5.348468015658103</v>
+        <v>7.534263413915719</v>
       </c>
       <c r="G17">
-        <v>37.83985356587874</v>
+        <v>43.10413921190485</v>
       </c>
       <c r="H17">
-        <v>59.23372562851115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>35.56987579798913</v>
+      </c>
+      <c r="I17">
+        <v>58.17266603973628</v>
+      </c>
+      <c r="J17">
+        <v>65.70692945365201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C18">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D18">
-        <v>36548629</v>
+        <v>52569</v>
       </c>
       <c r="E18">
-        <v>48.06300188670144</v>
+        <v>51.3932831136221</v>
       </c>
       <c r="F18">
-        <v>5.343758221101175</v>
+        <v>7.568254902298078</v>
       </c>
       <c r="G18">
-        <v>37.37548544449908</v>
+        <v>43.82502821132402</v>
       </c>
       <c r="H18">
-        <v>58.75051832890379</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>36.25677330902595</v>
+      </c>
+      <c r="I18">
+        <v>58.96153801592018</v>
+      </c>
+      <c r="J18">
+        <v>66.52979291821825</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C19">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D19">
-        <v>109604950</v>
+        <v>157707</v>
       </c>
       <c r="E19">
-        <v>48.61236283504296</v>
+        <v>52.99435028248588</v>
       </c>
       <c r="F19">
-        <v>5.508587457583743</v>
+        <v>7.847455755772852</v>
       </c>
       <c r="G19">
-        <v>37.59518791987547</v>
+        <v>45.14689452671303</v>
       </c>
       <c r="H19">
-        <v>59.62953775021045</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>37.29943877094017</v>
+      </c>
+      <c r="I19">
+        <v>60.84180603825872</v>
+      </c>
+      <c r="J19">
+        <v>68.68926179403158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>165</v>
+        <v>220</v>
       </c>
       <c r="E20">
-        <v>48</v>
+        <v>36.33333333333335</v>
       </c>
       <c r="F20">
-        <v>5.670244865018467</v>
+        <v>5.328066907685364</v>
       </c>
       <c r="G20">
-        <v>36.65951026996306</v>
+        <v>31.00526642564799</v>
       </c>
       <c r="H20">
-        <v>59.34048973003694</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>25.67719951796262</v>
+      </c>
+      <c r="I20">
+        <v>41.66140024101871</v>
+      </c>
+      <c r="J20">
+        <v>46.98946714870408</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
       <c r="D21">
-        <v>825</v>
+        <v>1210</v>
       </c>
       <c r="E21">
-        <v>47.8</v>
+        <v>37.62121212121213</v>
       </c>
       <c r="F21">
-        <v>6.424777110712099</v>
+        <v>6.979248324687199</v>
       </c>
       <c r="G21">
-        <v>34.9504457785758</v>
+        <v>30.64196379652493</v>
       </c>
       <c r="H21">
-        <v>60.6495542214242</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>23.66271547183774</v>
+      </c>
+      <c r="I21">
+        <v>44.60046044589933</v>
+      </c>
+      <c r="J21">
+        <v>51.57970877058653</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C22">
         <v>3</v>
       </c>
       <c r="D22">
-        <v>3795</v>
+        <v>6160</v>
       </c>
       <c r="E22">
-        <v>50.04565217391304</v>
+        <v>38.86309523809521</v>
       </c>
       <c r="F22">
-        <v>6.813244528449447</v>
+        <v>7.68260713623516</v>
       </c>
       <c r="G22">
-        <v>36.41916311701415</v>
+        <v>31.18048810186005</v>
       </c>
       <c r="H22">
-        <v>63.67214123081193</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>23.49788096562489</v>
+      </c>
+      <c r="I22">
+        <v>46.54570237433037</v>
+      </c>
+      <c r="J22">
+        <v>54.22830951056552</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C23">
         <v>4</v>
       </c>
       <c r="D23">
-        <v>15081</v>
+        <v>27214</v>
       </c>
       <c r="E23">
-        <v>50.63840262582057</v>
+        <v>38.81500943142014</v>
       </c>
       <c r="F23">
-        <v>7.534263413915719</v>
+        <v>8.095854482898568</v>
       </c>
       <c r="G23">
-        <v>35.56987579798913</v>
+        <v>30.71915494852157</v>
       </c>
       <c r="H23">
-        <v>65.70692945365201</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>22.623300465623</v>
+      </c>
+      <c r="I23">
+        <v>46.9108639143187</v>
+      </c>
+      <c r="J23">
+        <v>55.00671839721727</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C24">
         <v>5</v>
       </c>
       <c r="D24">
-        <v>52569</v>
+        <v>105820</v>
       </c>
       <c r="E24">
-        <v>51.3932831136221</v>
+        <v>39.68596673596671</v>
       </c>
       <c r="F24">
-        <v>7.568254902298078</v>
+        <v>8.55977269126641</v>
       </c>
       <c r="G24">
-        <v>36.25677330902595</v>
+        <v>31.1261940447003</v>
       </c>
       <c r="H24">
-        <v>66.52979291821825</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>22.56642135343389</v>
+      </c>
+      <c r="I24">
+        <v>48.24573942723312</v>
+      </c>
+      <c r="J24">
+        <v>56.80551211849953</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C25">
         <v>6</v>
       </c>
       <c r="D25">
-        <v>157707</v>
+        <v>354772</v>
       </c>
       <c r="E25">
-        <v>52.99435028248588</v>
+        <v>41.4277564182065</v>
       </c>
       <c r="F25">
-        <v>7.847455755772852</v>
+        <v>8.883495028221848</v>
       </c>
       <c r="G25">
-        <v>37.29943877094017</v>
+        <v>32.54426138998465</v>
       </c>
       <c r="H25">
-        <v>68.68926179403158</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>23.6607663617628</v>
+      </c>
+      <c r="I25">
+        <v>50.31125144642834</v>
+      </c>
+      <c r="J25">
+        <v>59.1947464746502</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C26">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>412995</v>
+        <v>364</v>
       </c>
       <c r="E26">
-        <v>54.50665867625516</v>
+        <v>54.14285714285717</v>
       </c>
       <c r="F26">
-        <v>7.77985740873035</v>
+        <v>3.04183559140866</v>
       </c>
       <c r="G26">
-        <v>38.94694385879446</v>
+        <v>51.10102155144851</v>
       </c>
       <c r="H26">
-        <v>70.06637349371586</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>48.05918596003985</v>
+      </c>
+      <c r="I26">
+        <v>57.18469273426584</v>
+      </c>
+      <c r="J26">
+        <v>60.22652832567449</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C27">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>959662</v>
+        <v>2366</v>
       </c>
       <c r="E27">
-        <v>56.03823989592169</v>
+        <v>54.05494505494512</v>
       </c>
       <c r="F27">
-        <v>7.787295728912951</v>
+        <v>3.906663431211801</v>
       </c>
       <c r="G27">
-        <v>40.46364843809579</v>
+        <v>50.14828162373332</v>
       </c>
       <c r="H27">
-        <v>71.61283135374759</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>46.24161819252152</v>
+      </c>
+      <c r="I27">
+        <v>57.96160848615693</v>
+      </c>
+      <c r="J27">
+        <v>61.86827191736872</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C28">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D28">
-        <v>2028824</v>
+        <v>14378</v>
       </c>
       <c r="E28">
-        <v>54.88705193254812</v>
+        <v>52.64014466546126</v>
       </c>
       <c r="F28">
-        <v>7.908396122144329</v>
+        <v>4.148660848162105</v>
       </c>
       <c r="G28">
-        <v>39.07025968825946</v>
+        <v>48.49148381729916</v>
       </c>
       <c r="H28">
-        <v>70.70384417683678</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>44.34282296913705</v>
+      </c>
+      <c r="I28">
+        <v>56.78880551362337</v>
+      </c>
+      <c r="J28">
+        <v>60.93746636178548</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D29">
-        <v>220</v>
+        <v>76440</v>
       </c>
       <c r="E29">
-        <v>36.33333333333335</v>
+        <v>52.11564625850326</v>
       </c>
       <c r="F29">
-        <v>5.328066907685364</v>
+        <v>4.797154543059506</v>
       </c>
       <c r="G29">
-        <v>25.67719951796262</v>
+        <v>47.31849171544376</v>
       </c>
       <c r="H29">
-        <v>46.98946714870408</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>42.52133717238425</v>
+      </c>
+      <c r="I29">
+        <v>56.91280080156277</v>
+      </c>
+      <c r="J29">
+        <v>61.70995534462227</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30">
-        <v>1210</v>
+        <v>360152</v>
       </c>
       <c r="E30">
-        <v>37.62121212121213</v>
+        <v>51.1991770141487</v>
       </c>
       <c r="F30">
-        <v>6.979248324687199</v>
+        <v>4.823553655050871</v>
       </c>
       <c r="G30">
-        <v>23.66271547183774</v>
+        <v>46.37562335909783</v>
       </c>
       <c r="H30">
-        <v>51.57970877058653</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>41.55206970404696</v>
+      </c>
+      <c r="I30">
+        <v>56.02273066919958</v>
+      </c>
+      <c r="J30">
+        <v>60.84628432425045</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D31">
-        <v>6160</v>
+        <v>1472120</v>
       </c>
       <c r="E31">
-        <v>38.86309523809521</v>
+        <v>50.87512363122645</v>
       </c>
       <c r="F31">
-        <v>7.68260713623516</v>
+        <v>5.135666606753321</v>
       </c>
       <c r="G31">
-        <v>23.49788096562489</v>
+        <v>45.73945702447313</v>
       </c>
       <c r="H31">
-        <v>54.22830951056552</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>40.60379041771981</v>
+      </c>
+      <c r="I31">
+        <v>56.01079023797977</v>
+      </c>
+      <c r="J31">
+        <v>61.14645684473309</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C32">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>27214</v>
+        <v>286</v>
       </c>
       <c r="E32">
-        <v>38.81500943142014</v>
+        <v>45.53846153846152</v>
       </c>
       <c r="F32">
-        <v>8.095854482898568</v>
+        <v>4.361505020733547</v>
       </c>
       <c r="G32">
-        <v>22.623300465623</v>
+        <v>41.17695651772797</v>
       </c>
       <c r="H32">
-        <v>55.00671839721727</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>36.81545149699443</v>
+      </c>
+      <c r="I32">
+        <v>49.89996655919506</v>
+      </c>
+      <c r="J32">
+        <v>54.26147157992861</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C33">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>105820</v>
+        <v>1716</v>
       </c>
       <c r="E33">
-        <v>39.68596673596671</v>
+        <v>45.61858974358979</v>
       </c>
       <c r="F33">
-        <v>8.55977269126641</v>
+        <v>5.818534624974652</v>
       </c>
       <c r="G33">
-        <v>22.56642135343389</v>
+        <v>39.80005511861514</v>
       </c>
       <c r="H33">
-        <v>56.80551211849953</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>33.98152049364049</v>
+      </c>
+      <c r="I33">
+        <v>51.43712436856445</v>
+      </c>
+      <c r="J33">
+        <v>57.2556589935391</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C34">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D34">
-        <v>354772</v>
+        <v>9581</v>
       </c>
       <c r="E34">
-        <v>41.4277564182065</v>
+        <v>45.55901262916193</v>
       </c>
       <c r="F34">
-        <v>8.883495028221848</v>
+        <v>6.290869997846061</v>
       </c>
       <c r="G34">
-        <v>23.6607663617628</v>
+        <v>39.26814263131587</v>
       </c>
       <c r="H34">
-        <v>59.1947464746502</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>32.97727263346981</v>
+      </c>
+      <c r="I34">
+        <v>51.84988262700799</v>
+      </c>
+      <c r="J34">
+        <v>58.14075262485404</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C35">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D35">
-        <v>1035100</v>
+        <v>46618</v>
       </c>
       <c r="E35">
-        <v>40.71633604912022</v>
+        <v>44.98624351109012</v>
       </c>
       <c r="F35">
-        <v>8.882491660518927</v>
+        <v>6.763226537490131</v>
       </c>
       <c r="G35">
-        <v>22.95135272808236</v>
+        <v>38.22301697359999</v>
       </c>
       <c r="H35">
-        <v>58.48131937015807</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>31.45979043610986</v>
+      </c>
+      <c r="I35">
+        <v>51.74947004858026</v>
+      </c>
+      <c r="J35">
+        <v>58.51269658607038</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C36">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D36">
-        <v>2657666</v>
+        <v>200343</v>
       </c>
       <c r="E36">
-        <v>41.47794480821377</v>
+        <v>44.88729478943628</v>
       </c>
       <c r="F36">
-        <v>8.992201781031198</v>
+        <v>7.180702218623521</v>
       </c>
       <c r="G36">
-        <v>23.49354124615137</v>
+        <v>37.70659257081276</v>
       </c>
       <c r="H36">
-        <v>59.46234837027617</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>30.52589035218924</v>
+      </c>
+      <c r="I36">
+        <v>52.06799700805981</v>
+      </c>
+      <c r="J36">
+        <v>59.24869922668333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C37">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D37">
-        <v>6139392</v>
+        <v>744458</v>
       </c>
       <c r="E37">
-        <v>42.28586359474462</v>
+        <v>43.71376222701615</v>
       </c>
       <c r="F37">
-        <v>9.601515658329955</v>
+        <v>7.2058092879052</v>
       </c>
       <c r="G37">
-        <v>23.08283227808471</v>
+        <v>36.50795293911095</v>
       </c>
       <c r="H37">
-        <v>61.48889491140453</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>29.30214365120575</v>
+      </c>
+      <c r="I37">
+        <v>50.91957151492136</v>
+      </c>
+      <c r="J37">
+        <v>58.12538080282656</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38">
-        <v>364</v>
+        <v>220</v>
       </c>
       <c r="E38">
-        <v>54.14285714285717</v>
+        <v>42.58333333333335</v>
       </c>
       <c r="F38">
-        <v>3.04183559140866</v>
+        <v>4.939747739382378</v>
       </c>
       <c r="G38">
-        <v>48.05918596003985</v>
+        <v>37.64358559395097</v>
       </c>
       <c r="H38">
-        <v>60.22652832567449</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>32.70383785456859</v>
+      </c>
+      <c r="I38">
+        <v>47.52308107271573</v>
+      </c>
+      <c r="J38">
+        <v>52.46282881209811</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C39">
         <v>2</v>
       </c>
       <c r="D39">
-        <v>2366</v>
+        <v>1210</v>
       </c>
       <c r="E39">
-        <v>54.05494505494512</v>
+        <v>43.34848484848484</v>
       </c>
       <c r="F39">
-        <v>3.906663431211801</v>
+        <v>6.655738446782036</v>
       </c>
       <c r="G39">
-        <v>46.24161819252152</v>
+        <v>36.6927464017028</v>
       </c>
       <c r="H39">
-        <v>61.86827191736872</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>30.03700795492077</v>
+      </c>
+      <c r="I39">
+        <v>50.00422329526688</v>
+      </c>
+      <c r="J39">
+        <v>56.65996174204891</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C40">
         <v>3</v>
       </c>
       <c r="D40">
-        <v>14378</v>
+        <v>6160</v>
       </c>
       <c r="E40">
-        <v>52.64014466546126</v>
+        <v>42.8863095238095</v>
       </c>
       <c r="F40">
-        <v>4.148660848162105</v>
+        <v>7.099035700923632</v>
       </c>
       <c r="G40">
-        <v>44.34282296913705</v>
+        <v>35.78727382288587</v>
       </c>
       <c r="H40">
-        <v>60.93746636178548</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>28.68823812196224</v>
+      </c>
+      <c r="I40">
+        <v>49.98534522473313</v>
+      </c>
+      <c r="J40">
+        <v>57.08438092565677</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C41">
         <v>4</v>
       </c>
       <c r="D41">
-        <v>76440</v>
+        <v>27214</v>
       </c>
       <c r="E41">
-        <v>52.11564625850326</v>
+        <v>42.06884936674755</v>
       </c>
       <c r="F41">
-        <v>4.797154543059506</v>
+        <v>7.243835736959333</v>
       </c>
       <c r="G41">
-        <v>42.52133717238425</v>
+        <v>34.82501362978822</v>
       </c>
       <c r="H41">
-        <v>61.70995534462227</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>27.58117789282888</v>
+      </c>
+      <c r="I41">
+        <v>49.31268510370688</v>
+      </c>
+      <c r="J41">
+        <v>56.55652084066622</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C42">
         <v>5</v>
       </c>
       <c r="D42">
-        <v>360152</v>
+        <v>105820</v>
       </c>
       <c r="E42">
-        <v>51.1991770141487</v>
+        <v>41.78153153153114</v>
       </c>
       <c r="F42">
-        <v>4.823553655050871</v>
+        <v>7.765914528215042</v>
       </c>
       <c r="G42">
-        <v>41.55206970404696</v>
+        <v>34.0156170033161</v>
       </c>
       <c r="H42">
-        <v>60.84628432425045</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>26.24970247510106</v>
+      </c>
+      <c r="I42">
+        <v>49.54744605974619</v>
+      </c>
+      <c r="J42">
+        <v>57.31336058796123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C43">
         <v>6</v>
       </c>
       <c r="D43">
-        <v>1472120</v>
+        <v>354772</v>
       </c>
       <c r="E43">
-        <v>50.87512363122645</v>
+        <v>41.58318863946451</v>
       </c>
       <c r="F43">
-        <v>5.135666606753321</v>
+        <v>7.788109241861181</v>
       </c>
       <c r="G43">
-        <v>40.60379041771981</v>
+        <v>33.79507939760333</v>
       </c>
       <c r="H43">
-        <v>61.14645684473309</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>26.00697015574215</v>
+      </c>
+      <c r="I43">
+        <v>49.37129788132569</v>
+      </c>
+      <c r="J43">
+        <v>57.15940712318687</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C44">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D44">
-        <v>5236452</v>
+        <v>220</v>
       </c>
       <c r="E44">
-        <v>50.06255399648419</v>
+        <v>64.58333333333333</v>
       </c>
       <c r="F44">
-        <v>5.199072413396978</v>
+        <v>5.131185348566761</v>
       </c>
       <c r="G44">
-        <v>39.66440916969023</v>
+        <v>59.45214798476657</v>
       </c>
       <c r="H44">
-        <v>60.46069882327815</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>54.32096263619981</v>
+      </c>
+      <c r="I44">
+        <v>69.71451868190009</v>
+      </c>
+      <c r="J44">
+        <v>74.84570403046685</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C45">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D45">
-        <v>16264326</v>
+        <v>1210</v>
       </c>
       <c r="E45">
-        <v>50.26148387581895</v>
+        <v>62.12121212121205</v>
       </c>
       <c r="F45">
-        <v>5.432924695029299</v>
+        <v>6.133665175249102</v>
       </c>
       <c r="G45">
-        <v>39.39563448576035</v>
+        <v>55.98754694596295</v>
       </c>
       <c r="H45">
-        <v>61.12733326587755</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>49.85388177071385</v>
+      </c>
+      <c r="I45">
+        <v>68.25487729646116</v>
+      </c>
+      <c r="J45">
+        <v>74.38854247171025</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C46">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D46">
-        <v>44795296</v>
+        <v>6160</v>
       </c>
       <c r="E46">
-        <v>50.45610759705894</v>
+        <v>61.69702380952384</v>
       </c>
       <c r="F46">
-        <v>5.550569707844106</v>
+        <v>6.694113606344837</v>
       </c>
       <c r="G46">
-        <v>39.35496818137072</v>
+        <v>55.00291020317901</v>
       </c>
       <c r="H46">
-        <v>61.55724701274715</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>48.30879659683417</v>
+      </c>
+      <c r="I46">
+        <v>68.39113741586868</v>
+      </c>
+      <c r="J46">
+        <v>75.08525102221351</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D47">
-        <v>286</v>
+        <v>27214</v>
       </c>
       <c r="E47">
-        <v>45.53846153846152</v>
+        <v>62.13015359741313</v>
       </c>
       <c r="F47">
-        <v>4.361505020733547</v>
+        <v>6.945819253260119</v>
       </c>
       <c r="G47">
-        <v>36.81545149699443</v>
+        <v>55.18433434415301</v>
       </c>
       <c r="H47">
-        <v>54.26147157992861</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>48.23851509089289</v>
+      </c>
+      <c r="I47">
+        <v>69.07597285067325</v>
+      </c>
+      <c r="J47">
+        <v>76.02179210393336</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48">
-        <v>1716</v>
+        <v>105820</v>
       </c>
       <c r="E48">
-        <v>45.61858974358979</v>
+        <v>62.31434511434528</v>
       </c>
       <c r="F48">
-        <v>5.818534624974652</v>
+        <v>7.102039230745189</v>
       </c>
       <c r="G48">
-        <v>33.98152049364049</v>
+        <v>55.21230588360009</v>
       </c>
       <c r="H48">
-        <v>57.2556589935391</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>48.1102666528549</v>
+      </c>
+      <c r="I48">
+        <v>69.41638434509046</v>
+      </c>
+      <c r="J48">
+        <v>76.51842357583566</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C49">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D49">
-        <v>9581</v>
+        <v>354772</v>
       </c>
       <c r="E49">
-        <v>45.55901262916193</v>
+        <v>62.44787920128951</v>
       </c>
       <c r="F49">
-        <v>6.290869997846061</v>
+        <v>7.499282153110954</v>
       </c>
       <c r="G49">
-        <v>32.97727263346981</v>
+        <v>54.94859704817856</v>
       </c>
       <c r="H49">
-        <v>58.14075262485404</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>47.4493148950676</v>
+      </c>
+      <c r="I49">
+        <v>69.94716135440046</v>
+      </c>
+      <c r="J49">
+        <v>77.44644350751142</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C50">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D50">
-        <v>46618</v>
+        <v>220</v>
       </c>
       <c r="E50">
-        <v>44.98624351109012</v>
+        <v>52.4166666666667</v>
       </c>
       <c r="F50">
-        <v>6.763226537490131</v>
+        <v>4.677015234470264</v>
       </c>
       <c r="G50">
-        <v>31.45979043610986</v>
+        <v>47.73965143219644</v>
       </c>
       <c r="H50">
-        <v>58.51269658607038</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>43.06263619772617</v>
+      </c>
+      <c r="I50">
+        <v>57.09368190113696</v>
+      </c>
+      <c r="J50">
+        <v>61.77069713560723</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C51">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51">
-        <v>200343</v>
+        <v>1210</v>
       </c>
       <c r="E51">
-        <v>44.88729478943628</v>
+        <v>53.78787878787877</v>
       </c>
       <c r="F51">
-        <v>7.180702218623521</v>
+        <v>5.758334019948165</v>
       </c>
       <c r="G51">
-        <v>30.52589035218924</v>
+        <v>48.02954476793061</v>
       </c>
       <c r="H51">
-        <v>59.24869922668333</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>42.27121074798244</v>
+      </c>
+      <c r="I51">
+        <v>59.54621280782694</v>
+      </c>
+      <c r="J51">
+        <v>65.30454682777511</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C52">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D52">
-        <v>744458</v>
+        <v>6160</v>
       </c>
       <c r="E52">
-        <v>43.71376222701615</v>
+        <v>56.16011904761869</v>
       </c>
       <c r="F52">
-        <v>7.2058092879052</v>
+        <v>5.970049702151853</v>
       </c>
       <c r="G52">
-        <v>29.30214365120575</v>
+        <v>50.19006934546683</v>
       </c>
       <c r="H52">
-        <v>58.12538080282656</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>44.22001964331498</v>
+      </c>
+      <c r="I52">
+        <v>62.13016874977054</v>
+      </c>
+      <c r="J52">
+        <v>68.10021845192239</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C53">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D53">
-        <v>2405689</v>
+        <v>27214</v>
       </c>
       <c r="E53">
-        <v>45.66260613903128</v>
+        <v>57.9420641336567</v>
       </c>
       <c r="F53">
-        <v>7.517108247257609</v>
+        <v>6.18521009925209</v>
       </c>
       <c r="G53">
-        <v>30.62838964451606</v>
+        <v>51.75685403440461</v>
       </c>
       <c r="H53">
-        <v>60.69682263354649</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>45.57164393515252</v>
+      </c>
+      <c r="I53">
+        <v>64.12727423290879</v>
+      </c>
+      <c r="J53">
+        <v>70.31248433216088</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C54">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D54">
-        <v>6806371</v>
+        <v>105820</v>
       </c>
       <c r="E54">
-        <v>44.49492308015511</v>
+        <v>57.40554400554419</v>
       </c>
       <c r="F54">
-        <v>7.866432599330802</v>
+        <v>6.82026237149332</v>
       </c>
       <c r="G54">
-        <v>28.7620578814935</v>
+        <v>50.58528163405087</v>
       </c>
       <c r="H54">
-        <v>60.22778827881672</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>43.76501926255755</v>
+      </c>
+      <c r="I54">
+        <v>64.22580637703751</v>
+      </c>
+      <c r="J54">
+        <v>71.04606874853083</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C55">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D55">
-        <v>17178772</v>
+        <v>354772</v>
       </c>
       <c r="E55">
-        <v>45.70005603427328</v>
+        <v>56.15673446607975</v>
       </c>
       <c r="F55">
-        <v>8.122715872112391</v>
+        <v>6.952533981763179</v>
       </c>
       <c r="G55">
-        <v>29.4546242900485</v>
+        <v>49.20420048431657</v>
       </c>
       <c r="H55">
-        <v>61.94548777849806</v>
+        <v>42.25166650255339</v>
+      </c>
+      <c r="I55">
+        <v>63.10926844784293</v>
+      </c>
+      <c r="J55">
+        <v>70.0618024296061</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>364</v>
+      </c>
+      <c r="E56">
+        <v>50.35714285714285</v>
+      </c>
+      <c r="F56">
+        <v>3.390270758545677</v>
+      </c>
+      <c r="G56">
+        <v>46.96687209859718</v>
+      </c>
+      <c r="H56">
+        <v>43.5766013400515</v>
+      </c>
+      <c r="I56">
+        <v>53.74741361568853</v>
+      </c>
+      <c r="J56">
+        <v>57.1376843742342</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <v>2366</v>
+      </c>
+      <c r="E57">
+        <v>51.40659340659342</v>
+      </c>
+      <c r="F57">
+        <v>3.764770021435135</v>
+      </c>
+      <c r="G57">
+        <v>47.64182338515828</v>
+      </c>
+      <c r="H57">
+        <v>43.87705336372315</v>
+      </c>
+      <c r="I57">
+        <v>55.17136342802855</v>
+      </c>
+      <c r="J57">
+        <v>58.93613344946368</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58">
+        <v>14378</v>
+      </c>
+      <c r="E58">
+        <v>50.72061482820975</v>
+      </c>
+      <c r="F58">
+        <v>4.205119244774655</v>
+      </c>
+      <c r="G58">
+        <v>46.5154955834351</v>
+      </c>
+      <c r="H58">
+        <v>42.31037633866045</v>
+      </c>
+      <c r="I58">
+        <v>54.92573407298441</v>
+      </c>
+      <c r="J58">
+        <v>59.13085331775906</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59">
+        <v>4</v>
+      </c>
+      <c r="D59">
+        <v>76440</v>
+      </c>
+      <c r="E59">
+        <v>48.78197278911553</v>
+      </c>
+      <c r="F59">
+        <v>4.504189771637932</v>
+      </c>
+      <c r="G59">
+        <v>44.2777830174776</v>
+      </c>
+      <c r="H59">
+        <v>39.77359324583966</v>
+      </c>
+      <c r="I59">
+        <v>53.28616256075346</v>
+      </c>
+      <c r="J59">
+        <v>57.79035233239139</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60">
+        <v>5</v>
+      </c>
+      <c r="D60">
+        <v>360152</v>
+      </c>
+      <c r="E60">
+        <v>48.60875685821532</v>
+      </c>
+      <c r="F60">
+        <v>4.834820211364923</v>
+      </c>
+      <c r="G60">
+        <v>43.77393664685039</v>
+      </c>
+      <c r="H60">
+        <v>38.93911643548547</v>
+      </c>
+      <c r="I60">
+        <v>53.44357706958024</v>
+      </c>
+      <c r="J60">
+        <v>58.27839728094516</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61">
+        <v>6</v>
+      </c>
+      <c r="D61">
+        <v>1472120</v>
+      </c>
+      <c r="E61">
+        <v>48.67409042741073</v>
+      </c>
+      <c r="F61">
+        <v>5.615226245029375</v>
+      </c>
+      <c r="G61">
+        <v>43.05886418238135</v>
+      </c>
+      <c r="H61">
+        <v>37.44363793735197</v>
+      </c>
+      <c r="I61">
+        <v>54.2893166724401</v>
+      </c>
+      <c r="J61">
+        <v>59.90454291746948</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>364</v>
+      </c>
+      <c r="E62">
+        <v>45.92857142857143</v>
+      </c>
+      <c r="F62">
+        <v>3.302192557922638</v>
+      </c>
+      <c r="G62">
+        <v>42.62637887064879</v>
+      </c>
+      <c r="H62">
+        <v>39.32418631272616</v>
+      </c>
+      <c r="I62">
+        <v>49.23076398649407</v>
+      </c>
+      <c r="J62">
+        <v>52.53295654441671</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="D63">
+        <v>2366</v>
+      </c>
+      <c r="E63">
+        <v>47.31868131868139</v>
+      </c>
+      <c r="F63">
+        <v>3.654883374734166</v>
+      </c>
+      <c r="G63">
+        <v>43.66379794394722</v>
+      </c>
+      <c r="H63">
+        <v>40.00891456921306</v>
+      </c>
+      <c r="I63">
+        <v>50.97356469341556</v>
+      </c>
+      <c r="J63">
+        <v>54.62844806814972</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>14378</v>
+      </c>
+      <c r="E64">
+        <v>47.66094032549709</v>
+      </c>
+      <c r="F64">
+        <v>4.236780057270666</v>
+      </c>
+      <c r="G64">
+        <v>43.42416026822643</v>
+      </c>
+      <c r="H64">
+        <v>39.18738021095577</v>
+      </c>
+      <c r="I64">
+        <v>51.89772038276776</v>
+      </c>
+      <c r="J64">
+        <v>56.13450044003842</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65">
+        <v>4</v>
+      </c>
+      <c r="D65">
+        <v>76440</v>
+      </c>
+      <c r="E65">
+        <v>48.92551020408168</v>
+      </c>
+      <c r="F65">
+        <v>4.720318431609755</v>
+      </c>
+      <c r="G65">
+        <v>44.20519177247193</v>
+      </c>
+      <c r="H65">
+        <v>39.48487334086217</v>
+      </c>
+      <c r="I65">
+        <v>53.64582863569144</v>
+      </c>
+      <c r="J65">
+        <v>58.36614706730119</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66">
+        <v>5</v>
+      </c>
+      <c r="D66">
+        <v>360152</v>
+      </c>
+      <c r="E66">
+        <v>50.63373520069113</v>
+      </c>
+      <c r="F66">
+        <v>4.874730107841847</v>
+      </c>
+      <c r="G66">
+        <v>45.75900509284929</v>
+      </c>
+      <c r="H66">
+        <v>40.88427498500744</v>
+      </c>
+      <c r="I66">
+        <v>55.50846530853298</v>
+      </c>
+      <c r="J66">
+        <v>60.38319541637483</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67">
+        <v>6</v>
+      </c>
+      <c r="D67">
+        <v>1472120</v>
+      </c>
+      <c r="E67">
+        <v>51.31782938890694</v>
+      </c>
+      <c r="F67">
+        <v>5.043459031467926</v>
+      </c>
+      <c r="G67">
+        <v>46.27437035743901</v>
+      </c>
+      <c r="H67">
+        <v>41.23091132597109</v>
+      </c>
+      <c r="I67">
+        <v>56.36128842037486</v>
+      </c>
+      <c r="J67">
+        <v>61.40474745184279</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>20</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>286</v>
+      </c>
+      <c r="E68">
+        <v>42.53846153846155</v>
+      </c>
+      <c r="F68">
+        <v>3.737189544966478</v>
+      </c>
+      <c r="G68">
+        <v>38.80127199349507</v>
+      </c>
+      <c r="H68">
+        <v>35.06408244852859</v>
+      </c>
+      <c r="I68">
+        <v>46.27565108342802</v>
+      </c>
+      <c r="J68">
+        <v>50.0128406283945</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>20</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <v>1716</v>
+      </c>
+      <c r="E69">
+        <v>40.66025641025642</v>
+      </c>
+      <c r="F69">
+        <v>4.198592676004279</v>
+      </c>
+      <c r="G69">
+        <v>36.46166373425213</v>
+      </c>
+      <c r="H69">
+        <v>32.26307105824786</v>
+      </c>
+      <c r="I69">
+        <v>44.8588490862607</v>
+      </c>
+      <c r="J69">
+        <v>49.05744176226497</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>20</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="D70">
+        <v>9581</v>
+      </c>
+      <c r="E70">
+        <v>41.51572904707237</v>
+      </c>
+      <c r="F70">
+        <v>5.145198418671137</v>
+      </c>
+      <c r="G70">
+        <v>36.37053062840123</v>
+      </c>
+      <c r="H70">
+        <v>31.22533220973009</v>
+      </c>
+      <c r="I70">
+        <v>46.66092746574351</v>
+      </c>
+      <c r="J70">
+        <v>51.80612588441464</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>20</v>
+      </c>
+      <c r="C71">
+        <v>4</v>
+      </c>
+      <c r="D71">
+        <v>46618</v>
+      </c>
+      <c r="E71">
+        <v>41.02305332704104</v>
+      </c>
+      <c r="F71">
+        <v>5.370767536404617</v>
+      </c>
+      <c r="G71">
+        <v>35.65228579063643</v>
+      </c>
+      <c r="H71">
+        <v>30.28151825423181</v>
+      </c>
+      <c r="I71">
+        <v>46.39382086344565</v>
+      </c>
+      <c r="J71">
+        <v>51.76458839985028</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>20</v>
+      </c>
+      <c r="C72">
+        <v>5</v>
+      </c>
+      <c r="D72">
+        <v>200343</v>
+      </c>
+      <c r="E72">
+        <v>42.27944325481792</v>
+      </c>
+      <c r="F72">
+        <v>5.984066670192131</v>
+      </c>
+      <c r="G72">
+        <v>36.29537658462579</v>
+      </c>
+      <c r="H72">
+        <v>30.31130991443366</v>
+      </c>
+      <c r="I72">
+        <v>48.26350992501005</v>
+      </c>
+      <c r="J72">
+        <v>54.24757659520218</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>20</v>
+      </c>
+      <c r="C73">
+        <v>6</v>
+      </c>
+      <c r="D73">
+        <v>744458</v>
+      </c>
+      <c r="E73">
+        <v>42.29416944945191</v>
+      </c>
+      <c r="F73">
+        <v>6.048542938109028</v>
+      </c>
+      <c r="G73">
+        <v>36.24562651134288</v>
+      </c>
+      <c r="H73">
+        <v>30.19708357323386</v>
+      </c>
+      <c r="I73">
+        <v>48.34271238756094</v>
+      </c>
+      <c r="J73">
+        <v>54.39125532566997</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>21</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>455</v>
+      </c>
+      <c r="E74">
+        <v>46.53333333333331</v>
+      </c>
+      <c r="F74">
+        <v>3.477831690120536</v>
+      </c>
+      <c r="G74">
+        <v>43.05550164321277</v>
+      </c>
+      <c r="H74">
+        <v>39.57766995309224</v>
+      </c>
+      <c r="I74">
+        <v>50.01116502345385</v>
+      </c>
+      <c r="J74">
+        <v>53.48899671357438</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>21</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="D75">
+        <v>3185</v>
+      </c>
+      <c r="E75">
+        <v>45.53095238095239</v>
+      </c>
+      <c r="F75">
+        <v>4.099227475871417</v>
+      </c>
+      <c r="G75">
+        <v>41.43172490508098</v>
+      </c>
+      <c r="H75">
+        <v>37.33249742920956</v>
+      </c>
+      <c r="I75">
+        <v>49.63017985682381</v>
+      </c>
+      <c r="J75">
+        <v>53.72940733269522</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>21</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76">
+        <v>20930</v>
+      </c>
+      <c r="E76">
+        <v>43.66992753623186</v>
+      </c>
+      <c r="F76">
+        <v>4.380765998873653</v>
+      </c>
+      <c r="G76">
+        <v>39.2891615373582</v>
+      </c>
+      <c r="H76">
+        <v>34.90839553848456</v>
+      </c>
+      <c r="I76">
+        <v>48.05069353510552</v>
+      </c>
+      <c r="J76">
+        <v>52.43145953397917</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>21</v>
+      </c>
+      <c r="C77">
+        <v>4</v>
+      </c>
+      <c r="D77">
+        <v>120757</v>
+      </c>
+      <c r="E77">
+        <v>42.963576990706</v>
+      </c>
+      <c r="F77">
+        <v>4.652650189212832</v>
+      </c>
+      <c r="G77">
+        <v>38.31092680149317</v>
+      </c>
+      <c r="H77">
+        <v>33.65827661228034</v>
+      </c>
+      <c r="I77">
+        <v>47.61622717991884</v>
+      </c>
+      <c r="J77">
+        <v>52.26887736913167</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78">
+        <v>5</v>
+      </c>
+      <c r="D78">
+        <v>619411</v>
+      </c>
+      <c r="E78">
+        <v>44.05909081369186</v>
+      </c>
+      <c r="F78">
+        <v>5.245797068680192</v>
+      </c>
+      <c r="G78">
+        <v>38.81329374501167</v>
+      </c>
+      <c r="H78">
+        <v>33.56749667633147</v>
+      </c>
+      <c r="I78">
+        <v>49.30488788237205</v>
+      </c>
+      <c r="J78">
+        <v>54.55068495105225</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>21</v>
+      </c>
+      <c r="C79">
+        <v>6</v>
+      </c>
+      <c r="D79">
+        <v>2765997</v>
+      </c>
+      <c r="E79">
+        <v>44.77892142809026</v>
+      </c>
+      <c r="F79">
+        <v>5.685782719556149</v>
+      </c>
+      <c r="G79">
+        <v>39.09313870853411</v>
+      </c>
+      <c r="H79">
+        <v>33.40735598897797</v>
+      </c>
+      <c r="I79">
+        <v>50.46470414764642</v>
+      </c>
+      <c r="J79">
+        <v>56.15048686720256</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>22</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>286</v>
+      </c>
+      <c r="E80">
+        <v>38.46153846153846</v>
+      </c>
+      <c r="F80">
+        <v>2.312571988885682</v>
+      </c>
+      <c r="G80">
+        <v>36.14896647265278</v>
+      </c>
+      <c r="H80">
+        <v>33.83639448376709</v>
+      </c>
+      <c r="I80">
+        <v>40.77411045042414</v>
+      </c>
+      <c r="J80">
+        <v>43.08668243930983</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>22</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+      <c r="D81">
+        <v>1716</v>
+      </c>
+      <c r="E81">
+        <v>40.00641025641022</v>
+      </c>
+      <c r="F81">
+        <v>2.744549805858759</v>
+      </c>
+      <c r="G81">
+        <v>37.26186045055146</v>
+      </c>
+      <c r="H81">
+        <v>34.5173106446927</v>
+      </c>
+      <c r="I81">
+        <v>42.75096006226898</v>
+      </c>
+      <c r="J81">
+        <v>45.49550986812774</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>22</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+      <c r="D82">
+        <v>9581</v>
+      </c>
+      <c r="E82">
+        <v>41.23053960964413</v>
+      </c>
+      <c r="F82">
+        <v>3.066447900338833</v>
+      </c>
+      <c r="G82">
+        <v>38.1640917093053</v>
+      </c>
+      <c r="H82">
+        <v>35.09764380896646</v>
+      </c>
+      <c r="I82">
+        <v>44.29698750998296</v>
+      </c>
+      <c r="J82">
+        <v>47.36343541032179</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83">
+        <v>4</v>
+      </c>
+      <c r="D83">
+        <v>46618</v>
+      </c>
+      <c r="E83">
+        <v>41.45608777725337</v>
+      </c>
+      <c r="F83">
+        <v>3.695994151402893</v>
+      </c>
+      <c r="G83">
+        <v>37.76009362585048</v>
+      </c>
+      <c r="H83">
+        <v>34.06409947444759</v>
+      </c>
+      <c r="I83">
+        <v>45.15208192865627</v>
+      </c>
+      <c r="J83">
+        <v>48.84807608005916</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84">
+        <v>5</v>
+      </c>
+      <c r="D84">
+        <v>200343</v>
+      </c>
+      <c r="E84">
+        <v>41.46616702355448</v>
+      </c>
+      <c r="F84">
+        <v>3.723719438780323</v>
+      </c>
+      <c r="G84">
+        <v>37.74244758477416</v>
+      </c>
+      <c r="H84">
+        <v>34.01872814599383</v>
+      </c>
+      <c r="I84">
+        <v>45.1898864623348</v>
+      </c>
+      <c r="J84">
+        <v>48.91360590111513</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>22</v>
+      </c>
+      <c r="C85">
+        <v>6</v>
+      </c>
+      <c r="D85">
+        <v>744458</v>
+      </c>
+      <c r="E85">
+        <v>42.65732882177367</v>
+      </c>
+      <c r="F85">
+        <v>4.523064996403139</v>
+      </c>
+      <c r="G85">
+        <v>38.13426382537054</v>
+      </c>
+      <c r="H85">
+        <v>33.6111988289674</v>
+      </c>
+      <c r="I85">
+        <v>47.18039381817681</v>
+      </c>
+      <c r="J85">
+        <v>51.70345881457995</v>
       </c>
     </row>
   </sheetData>

--- a/HandAvg_byLevel_output.xlsx
+++ b/HandAvg_byLevel_output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="23">
   <si>
     <t>Class</t>
   </si>
@@ -440,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J85"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -608,31 +608,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>200343</v>
+        <v>455</v>
       </c>
       <c r="E6">
-        <v>43.64646680942187</v>
+        <v>45.00000000000002</v>
       </c>
       <c r="F6">
-        <v>5.377058245078711</v>
+        <v>3.057242670440445</v>
       </c>
       <c r="G6">
-        <v>38.26940856434315</v>
+        <v>41.94275732955958</v>
       </c>
       <c r="H6">
-        <v>32.89235031926444</v>
+        <v>38.88551465911913</v>
       </c>
       <c r="I6">
-        <v>49.02352505450058</v>
+        <v>48.05724267044047</v>
       </c>
       <c r="J6">
-        <v>54.40058329957929</v>
+        <v>51.11448534088091</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -640,31 +640,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>744458</v>
+        <v>3185</v>
       </c>
       <c r="E7">
-        <v>43.03688052247385</v>
+        <v>46.10714285714283</v>
       </c>
       <c r="F7">
-        <v>5.583826694255356</v>
+        <v>3.498686141687275</v>
       </c>
       <c r="G7">
-        <v>37.45305382821849</v>
+        <v>42.60845671545556</v>
       </c>
       <c r="H7">
-        <v>31.86922713396314</v>
+        <v>39.10977057376829</v>
       </c>
       <c r="I7">
-        <v>48.62070721672921</v>
+        <v>49.60582899883011</v>
       </c>
       <c r="J7">
-        <v>54.20453391098457</v>
+        <v>53.10451514051738</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -675,28 +675,28 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>455</v>
+        <v>20930</v>
       </c>
       <c r="E8">
-        <v>45.00000000000002</v>
+        <v>46.33913043478262</v>
       </c>
       <c r="F8">
-        <v>3.057242670440445</v>
+        <v>3.957028308336987</v>
       </c>
       <c r="G8">
-        <v>41.94275732955958</v>
+        <v>42.38210212644563</v>
       </c>
       <c r="H8">
-        <v>38.88551465911913</v>
+        <v>38.42507381810864</v>
       </c>
       <c r="I8">
-        <v>48.05724267044047</v>
+        <v>50.29615874311961</v>
       </c>
       <c r="J8">
-        <v>51.11448534088091</v>
+        <v>54.25318705145659</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -707,28 +707,28 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>3185</v>
+        <v>120757</v>
       </c>
       <c r="E9">
-        <v>46.10714285714283</v>
+        <v>46.80903039437329</v>
       </c>
       <c r="F9">
-        <v>3.498686141687275</v>
+        <v>4.552776385209506</v>
       </c>
       <c r="G9">
-        <v>42.60845671545556</v>
+        <v>42.25625400916378</v>
       </c>
       <c r="H9">
-        <v>39.10977057376829</v>
+        <v>37.70347762395428</v>
       </c>
       <c r="I9">
-        <v>49.60582899883011</v>
+        <v>51.36180677958279</v>
       </c>
       <c r="J9">
-        <v>53.10451514051738</v>
+        <v>55.9145831647923</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -736,31 +736,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>20930</v>
+        <v>165</v>
       </c>
       <c r="E10">
-        <v>46.33913043478262</v>
+        <v>48</v>
       </c>
       <c r="F10">
-        <v>3.957028308336987</v>
+        <v>5.670244865018467</v>
       </c>
       <c r="G10">
-        <v>42.38210212644563</v>
+        <v>42.32975513498153</v>
       </c>
       <c r="H10">
-        <v>38.42507381810864</v>
+        <v>36.65951026996306</v>
       </c>
       <c r="I10">
-        <v>50.29615874311961</v>
+        <v>53.67024486501847</v>
       </c>
       <c r="J10">
-        <v>54.25318705145659</v>
+        <v>59.34048973003694</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -768,31 +768,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>120757</v>
+        <v>825</v>
       </c>
       <c r="E11">
-        <v>46.80903039437329</v>
+        <v>47.8</v>
       </c>
       <c r="F11">
-        <v>4.552776385209506</v>
+        <v>6.424777110712099</v>
       </c>
       <c r="G11">
-        <v>42.25625400916378</v>
+        <v>41.3752228892879</v>
       </c>
       <c r="H11">
-        <v>37.70347762395428</v>
+        <v>34.9504457785758</v>
       </c>
       <c r="I11">
-        <v>51.36180677958279</v>
+        <v>54.2247771107121</v>
       </c>
       <c r="J11">
-        <v>55.9145831647923</v>
+        <v>60.6495542214242</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -800,31 +800,31 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>619411</v>
+        <v>3795</v>
       </c>
       <c r="E12">
-        <v>47.3989163361105</v>
+        <v>50.04565217391304</v>
       </c>
       <c r="F12">
-        <v>4.735900462381395</v>
+        <v>6.813244528449447</v>
       </c>
       <c r="G12">
-        <v>42.66301587372911</v>
+        <v>43.2324076454636</v>
       </c>
       <c r="H12">
-        <v>37.92711541134771</v>
+        <v>36.41916311701415</v>
       </c>
       <c r="I12">
-        <v>52.1348167984919</v>
+        <v>56.85889670236249</v>
       </c>
       <c r="J12">
-        <v>56.87071726087329</v>
+        <v>63.67214123081193</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -832,31 +832,31 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D13">
-        <v>2765997</v>
+        <v>15081</v>
       </c>
       <c r="E13">
-        <v>47.88525544918029</v>
+        <v>50.63840262582057</v>
       </c>
       <c r="F13">
-        <v>4.864348645718177</v>
+        <v>7.534263413915719</v>
       </c>
       <c r="G13">
-        <v>43.02090680346211</v>
+        <v>43.10413921190485</v>
       </c>
       <c r="H13">
-        <v>38.15655815774394</v>
+        <v>35.56987579798913</v>
       </c>
       <c r="I13">
-        <v>52.74960409489847</v>
+        <v>58.17266603973628</v>
       </c>
       <c r="J13">
-        <v>57.61395274061665</v>
+        <v>65.70692945365201</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -864,31 +864,31 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>165</v>
+        <v>220</v>
       </c>
       <c r="E14">
-        <v>48</v>
+        <v>36.33333333333335</v>
       </c>
       <c r="F14">
-        <v>5.670244865018467</v>
+        <v>5.328066907685364</v>
       </c>
       <c r="G14">
-        <v>42.32975513498153</v>
+        <v>31.00526642564799</v>
       </c>
       <c r="H14">
-        <v>36.65951026996306</v>
+        <v>25.67719951796262</v>
       </c>
       <c r="I14">
-        <v>53.67024486501847</v>
+        <v>41.66140024101871</v>
       </c>
       <c r="J14">
-        <v>59.34048973003694</v>
+        <v>46.98946714870408</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -896,31 +896,31 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15">
-        <v>825</v>
+        <v>1210</v>
       </c>
       <c r="E15">
-        <v>47.8</v>
+        <v>37.62121212121213</v>
       </c>
       <c r="F15">
-        <v>6.424777110712099</v>
+        <v>6.979248324687199</v>
       </c>
       <c r="G15">
-        <v>41.3752228892879</v>
+        <v>30.64196379652493</v>
       </c>
       <c r="H15">
-        <v>34.9504457785758</v>
+        <v>23.66271547183774</v>
       </c>
       <c r="I15">
-        <v>54.2247771107121</v>
+        <v>44.60046044589933</v>
       </c>
       <c r="J15">
-        <v>60.6495542214242</v>
+        <v>51.57970877058653</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -928,31 +928,31 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
       <c r="D16">
-        <v>3795</v>
+        <v>6160</v>
       </c>
       <c r="E16">
-        <v>50.04565217391304</v>
+        <v>38.86309523809521</v>
       </c>
       <c r="F16">
-        <v>6.813244528449447</v>
+        <v>7.68260713623516</v>
       </c>
       <c r="G16">
-        <v>43.2324076454636</v>
+        <v>31.18048810186005</v>
       </c>
       <c r="H16">
-        <v>36.41916311701415</v>
+        <v>23.49788096562489</v>
       </c>
       <c r="I16">
-        <v>56.85889670236249</v>
+        <v>46.54570237433037</v>
       </c>
       <c r="J16">
-        <v>63.67214123081193</v>
+        <v>54.22830951056552</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -960,31 +960,31 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C17">
         <v>4</v>
       </c>
       <c r="D17">
-        <v>15081</v>
+        <v>27214</v>
       </c>
       <c r="E17">
-        <v>50.63840262582057</v>
+        <v>38.81500943142014</v>
       </c>
       <c r="F17">
-        <v>7.534263413915719</v>
+        <v>8.095854482898568</v>
       </c>
       <c r="G17">
-        <v>43.10413921190485</v>
+        <v>30.71915494852157</v>
       </c>
       <c r="H17">
-        <v>35.56987579798913</v>
+        <v>22.623300465623</v>
       </c>
       <c r="I17">
-        <v>58.17266603973628</v>
+        <v>46.9108639143187</v>
       </c>
       <c r="J17">
-        <v>65.70692945365201</v>
+        <v>55.00671839721727</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -992,31 +992,31 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>52569</v>
+        <v>364</v>
       </c>
       <c r="E18">
-        <v>51.3932831136221</v>
+        <v>54.14285714285717</v>
       </c>
       <c r="F18">
-        <v>7.568254902298078</v>
+        <v>3.04183559140866</v>
       </c>
       <c r="G18">
-        <v>43.82502821132402</v>
+        <v>51.10102155144851</v>
       </c>
       <c r="H18">
-        <v>36.25677330902595</v>
+        <v>48.05918596003985</v>
       </c>
       <c r="I18">
-        <v>58.96153801592018</v>
+        <v>57.18469273426584</v>
       </c>
       <c r="J18">
-        <v>66.52979291821825</v>
+        <v>60.22652832567449</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1024,31 +1024,31 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>157707</v>
+        <v>2366</v>
       </c>
       <c r="E19">
-        <v>52.99435028248588</v>
+        <v>54.05494505494512</v>
       </c>
       <c r="F19">
-        <v>7.847455755772852</v>
+        <v>3.906663431211801</v>
       </c>
       <c r="G19">
-        <v>45.14689452671303</v>
+        <v>50.14828162373332</v>
       </c>
       <c r="H19">
-        <v>37.29943877094017</v>
+        <v>46.24161819252152</v>
       </c>
       <c r="I19">
-        <v>60.84180603825872</v>
+        <v>57.96160848615693</v>
       </c>
       <c r="J19">
-        <v>68.68926179403158</v>
+        <v>61.86827191736872</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1056,31 +1056,31 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>220</v>
+        <v>14378</v>
       </c>
       <c r="E20">
-        <v>36.33333333333335</v>
+        <v>52.64014466546126</v>
       </c>
       <c r="F20">
-        <v>5.328066907685364</v>
+        <v>4.148660848162105</v>
       </c>
       <c r="G20">
-        <v>31.00526642564799</v>
+        <v>48.49148381729916</v>
       </c>
       <c r="H20">
-        <v>25.67719951796262</v>
+        <v>44.34282296913705</v>
       </c>
       <c r="I20">
-        <v>41.66140024101871</v>
+        <v>56.78880551362337</v>
       </c>
       <c r="J20">
-        <v>46.98946714870408</v>
+        <v>60.93746636178548</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1088,31 +1088,31 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21">
-        <v>1210</v>
+        <v>76440</v>
       </c>
       <c r="E21">
-        <v>37.62121212121213</v>
+        <v>52.11564625850326</v>
       </c>
       <c r="F21">
-        <v>6.979248324687199</v>
+        <v>4.797154543059506</v>
       </c>
       <c r="G21">
-        <v>30.64196379652493</v>
+        <v>47.31849171544376</v>
       </c>
       <c r="H21">
-        <v>23.66271547183774</v>
+        <v>42.52133717238425</v>
       </c>
       <c r="I21">
-        <v>44.60046044589933</v>
+        <v>56.91280080156277</v>
       </c>
       <c r="J21">
-        <v>51.57970877058653</v>
+        <v>61.70995534462227</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1120,31 +1120,31 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>6160</v>
+        <v>286</v>
       </c>
       <c r="E22">
-        <v>38.86309523809521</v>
+        <v>45.53846153846152</v>
       </c>
       <c r="F22">
-        <v>7.68260713623516</v>
+        <v>4.361505020733547</v>
       </c>
       <c r="G22">
-        <v>31.18048810186005</v>
+        <v>41.17695651772797</v>
       </c>
       <c r="H22">
-        <v>23.49788096562489</v>
+        <v>36.81545149699443</v>
       </c>
       <c r="I22">
-        <v>46.54570237433037</v>
+        <v>49.89996655919506</v>
       </c>
       <c r="J22">
-        <v>54.22830951056552</v>
+        <v>54.26147157992861</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1152,31 +1152,31 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>27214</v>
+        <v>1716</v>
       </c>
       <c r="E23">
-        <v>38.81500943142014</v>
+        <v>45.61858974358979</v>
       </c>
       <c r="F23">
-        <v>8.095854482898568</v>
+        <v>5.818534624974652</v>
       </c>
       <c r="G23">
-        <v>30.71915494852157</v>
+        <v>39.80005511861514</v>
       </c>
       <c r="H23">
-        <v>22.623300465623</v>
+        <v>33.98152049364049</v>
       </c>
       <c r="I23">
-        <v>46.9108639143187</v>
+        <v>51.43712436856445</v>
       </c>
       <c r="J23">
-        <v>55.00671839721727</v>
+        <v>57.2556589935391</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1184,31 +1184,31 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24">
-        <v>105820</v>
+        <v>9581</v>
       </c>
       <c r="E24">
-        <v>39.68596673596671</v>
+        <v>45.55901262916193</v>
       </c>
       <c r="F24">
-        <v>8.55977269126641</v>
+        <v>6.290869997846061</v>
       </c>
       <c r="G24">
-        <v>31.1261940447003</v>
+        <v>39.26814263131587</v>
       </c>
       <c r="H24">
-        <v>22.56642135343389</v>
+        <v>32.97727263346981</v>
       </c>
       <c r="I24">
-        <v>48.24573942723312</v>
+        <v>51.84988262700799</v>
       </c>
       <c r="J24">
-        <v>56.80551211849953</v>
+        <v>58.14075262485404</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1216,31 +1216,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C25">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D25">
-        <v>354772</v>
+        <v>46618</v>
       </c>
       <c r="E25">
-        <v>41.4277564182065</v>
+        <v>44.98624351109012</v>
       </c>
       <c r="F25">
-        <v>8.883495028221848</v>
+        <v>6.763226537490131</v>
       </c>
       <c r="G25">
-        <v>32.54426138998465</v>
+        <v>38.22301697359999</v>
       </c>
       <c r="H25">
-        <v>23.6607663617628</v>
+        <v>31.45979043610986</v>
       </c>
       <c r="I25">
-        <v>50.31125144642834</v>
+        <v>51.74947004858026</v>
       </c>
       <c r="J25">
-        <v>59.1947464746502</v>
+        <v>58.51269658607038</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1248,31 +1248,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26">
-        <v>364</v>
+        <v>220</v>
       </c>
       <c r="E26">
-        <v>54.14285714285717</v>
+        <v>42.58333333333335</v>
       </c>
       <c r="F26">
-        <v>3.04183559140866</v>
+        <v>4.939747739382378</v>
       </c>
       <c r="G26">
-        <v>51.10102155144851</v>
+        <v>37.64358559395097</v>
       </c>
       <c r="H26">
-        <v>48.05918596003985</v>
+        <v>32.70383785456859</v>
       </c>
       <c r="I26">
-        <v>57.18469273426584</v>
+        <v>47.52308107271573</v>
       </c>
       <c r="J26">
-        <v>60.22652832567449</v>
+        <v>52.46282881209811</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1280,31 +1280,31 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C27">
         <v>2</v>
       </c>
       <c r="D27">
-        <v>2366</v>
+        <v>1210</v>
       </c>
       <c r="E27">
-        <v>54.05494505494512</v>
+        <v>43.34848484848484</v>
       </c>
       <c r="F27">
-        <v>3.906663431211801</v>
+        <v>6.655738446782036</v>
       </c>
       <c r="G27">
-        <v>50.14828162373332</v>
+        <v>36.6927464017028</v>
       </c>
       <c r="H27">
-        <v>46.24161819252152</v>
+        <v>30.03700795492077</v>
       </c>
       <c r="I27">
-        <v>57.96160848615693</v>
+        <v>50.00422329526688</v>
       </c>
       <c r="J27">
-        <v>61.86827191736872</v>
+        <v>56.65996174204891</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1312,31 +1312,31 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C28">
         <v>3</v>
       </c>
       <c r="D28">
-        <v>14378</v>
+        <v>6160</v>
       </c>
       <c r="E28">
-        <v>52.64014466546126</v>
+        <v>42.8863095238095</v>
       </c>
       <c r="F28">
-        <v>4.148660848162105</v>
+        <v>7.099035700923632</v>
       </c>
       <c r="G28">
-        <v>48.49148381729916</v>
+        <v>35.78727382288587</v>
       </c>
       <c r="H28">
-        <v>44.34282296913705</v>
+        <v>28.68823812196224</v>
       </c>
       <c r="I28">
-        <v>56.78880551362337</v>
+        <v>49.98534522473313</v>
       </c>
       <c r="J28">
-        <v>60.93746636178548</v>
+        <v>57.08438092565677</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1344,31 +1344,31 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C29">
         <v>4</v>
       </c>
       <c r="D29">
-        <v>76440</v>
+        <v>27214</v>
       </c>
       <c r="E29">
-        <v>52.11564625850326</v>
+        <v>42.06884936674755</v>
       </c>
       <c r="F29">
-        <v>4.797154543059506</v>
+        <v>7.243835736959333</v>
       </c>
       <c r="G29">
-        <v>47.31849171544376</v>
+        <v>34.82501362978822</v>
       </c>
       <c r="H29">
-        <v>42.52133717238425</v>
+        <v>27.58117789282888</v>
       </c>
       <c r="I29">
-        <v>56.91280080156277</v>
+        <v>49.31268510370688</v>
       </c>
       <c r="J29">
-        <v>61.70995534462227</v>
+        <v>56.55652084066622</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1376,31 +1376,31 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>360152</v>
+        <v>220</v>
       </c>
       <c r="E30">
-        <v>51.1991770141487</v>
+        <v>64.58333333333333</v>
       </c>
       <c r="F30">
-        <v>4.823553655050871</v>
+        <v>5.131185348566761</v>
       </c>
       <c r="G30">
-        <v>46.37562335909783</v>
+        <v>59.45214798476657</v>
       </c>
       <c r="H30">
-        <v>41.55206970404696</v>
+        <v>54.32096263619981</v>
       </c>
       <c r="I30">
-        <v>56.02273066919958</v>
+        <v>69.71451868190009</v>
       </c>
       <c r="J30">
-        <v>60.84628432425045</v>
+        <v>74.84570403046685</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1408,31 +1408,31 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C31">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D31">
-        <v>1472120</v>
+        <v>1210</v>
       </c>
       <c r="E31">
-        <v>50.87512363122645</v>
+        <v>62.12121212121205</v>
       </c>
       <c r="F31">
-        <v>5.135666606753321</v>
+        <v>6.133665175249102</v>
       </c>
       <c r="G31">
-        <v>45.73945702447313</v>
+        <v>55.98754694596295</v>
       </c>
       <c r="H31">
-        <v>40.60379041771981</v>
+        <v>49.85388177071385</v>
       </c>
       <c r="I31">
-        <v>56.01079023797977</v>
+        <v>68.25487729646116</v>
       </c>
       <c r="J31">
-        <v>61.14645684473309</v>
+        <v>74.38854247171025</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1440,31 +1440,31 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D32">
-        <v>286</v>
+        <v>6160</v>
       </c>
       <c r="E32">
-        <v>45.53846153846152</v>
+        <v>61.69702380952384</v>
       </c>
       <c r="F32">
-        <v>4.361505020733547</v>
+        <v>6.694113606344837</v>
       </c>
       <c r="G32">
-        <v>41.17695651772797</v>
+        <v>55.00291020317901</v>
       </c>
       <c r="H32">
-        <v>36.81545149699443</v>
+        <v>48.30879659683417</v>
       </c>
       <c r="I32">
-        <v>49.89996655919506</v>
+        <v>68.39113741586868</v>
       </c>
       <c r="J32">
-        <v>54.26147157992861</v>
+        <v>75.08525102221351</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1472,31 +1472,31 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33">
-        <v>1716</v>
+        <v>27214</v>
       </c>
       <c r="E33">
-        <v>45.61858974358979</v>
+        <v>62.13015359741313</v>
       </c>
       <c r="F33">
-        <v>5.818534624974652</v>
+        <v>6.945819253260119</v>
       </c>
       <c r="G33">
-        <v>39.80005511861514</v>
+        <v>55.18433434415301</v>
       </c>
       <c r="H33">
-        <v>33.98152049364049</v>
+        <v>48.23851509089289</v>
       </c>
       <c r="I33">
-        <v>51.43712436856445</v>
+        <v>69.07597285067325</v>
       </c>
       <c r="J33">
-        <v>57.2556589935391</v>
+        <v>76.02179210393336</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1504,31 +1504,31 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>9581</v>
+        <v>220</v>
       </c>
       <c r="E34">
-        <v>45.55901262916193</v>
+        <v>52.4166666666667</v>
       </c>
       <c r="F34">
-        <v>6.290869997846061</v>
+        <v>4.677015234470264</v>
       </c>
       <c r="G34">
-        <v>39.26814263131587</v>
+        <v>47.73965143219644</v>
       </c>
       <c r="H34">
-        <v>32.97727263346981</v>
+        <v>43.06263619772617</v>
       </c>
       <c r="I34">
-        <v>51.84988262700799</v>
+        <v>57.09368190113696</v>
       </c>
       <c r="J34">
-        <v>58.14075262485404</v>
+        <v>61.77069713560723</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1536,31 +1536,31 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35">
-        <v>46618</v>
+        <v>1210</v>
       </c>
       <c r="E35">
-        <v>44.98624351109012</v>
+        <v>53.78787878787877</v>
       </c>
       <c r="F35">
-        <v>6.763226537490131</v>
+        <v>5.758334019948165</v>
       </c>
       <c r="G35">
-        <v>38.22301697359999</v>
+        <v>48.02954476793061</v>
       </c>
       <c r="H35">
-        <v>31.45979043610986</v>
+        <v>42.27121074798244</v>
       </c>
       <c r="I35">
-        <v>51.74947004858026</v>
+        <v>59.54621280782694</v>
       </c>
       <c r="J35">
-        <v>58.51269658607038</v>
+        <v>65.30454682777511</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1568,31 +1568,31 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C36">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36">
-        <v>200343</v>
+        <v>6160</v>
       </c>
       <c r="E36">
-        <v>44.88729478943628</v>
+        <v>56.16011904761869</v>
       </c>
       <c r="F36">
-        <v>7.180702218623521</v>
+        <v>5.970049702151853</v>
       </c>
       <c r="G36">
-        <v>37.70659257081276</v>
+        <v>50.19006934546683</v>
       </c>
       <c r="H36">
-        <v>30.52589035218924</v>
+        <v>44.22001964331498</v>
       </c>
       <c r="I36">
-        <v>52.06799700805981</v>
+        <v>62.13016874977054</v>
       </c>
       <c r="J36">
-        <v>59.24869922668333</v>
+        <v>68.10021845192239</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1600,31 +1600,31 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C37">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D37">
-        <v>744458</v>
+        <v>27214</v>
       </c>
       <c r="E37">
-        <v>43.71376222701615</v>
+        <v>57.9420641336567</v>
       </c>
       <c r="F37">
-        <v>7.2058092879052</v>
+        <v>6.18521009925209</v>
       </c>
       <c r="G37">
-        <v>36.50795293911095</v>
+        <v>51.75685403440461</v>
       </c>
       <c r="H37">
-        <v>29.30214365120575</v>
+        <v>45.57164393515252</v>
       </c>
       <c r="I37">
-        <v>50.91957151492136</v>
+        <v>64.12727423290879</v>
       </c>
       <c r="J37">
-        <v>58.12538080282656</v>
+        <v>70.31248433216088</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1632,31 +1632,31 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38">
-        <v>220</v>
+        <v>364</v>
       </c>
       <c r="E38">
-        <v>42.58333333333335</v>
+        <v>50.35714285714285</v>
       </c>
       <c r="F38">
-        <v>4.939747739382378</v>
+        <v>3.390270758545677</v>
       </c>
       <c r="G38">
-        <v>37.64358559395097</v>
+        <v>46.96687209859718</v>
       </c>
       <c r="H38">
-        <v>32.70383785456859</v>
+        <v>43.5766013400515</v>
       </c>
       <c r="I38">
-        <v>47.52308107271573</v>
+        <v>53.74741361568853</v>
       </c>
       <c r="J38">
-        <v>52.46282881209811</v>
+        <v>57.1376843742342</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1664,31 +1664,31 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C39">
         <v>2</v>
       </c>
       <c r="D39">
-        <v>1210</v>
+        <v>2366</v>
       </c>
       <c r="E39">
-        <v>43.34848484848484</v>
+        <v>51.40659340659342</v>
       </c>
       <c r="F39">
-        <v>6.655738446782036</v>
+        <v>3.764770021435135</v>
       </c>
       <c r="G39">
-        <v>36.6927464017028</v>
+        <v>47.64182338515828</v>
       </c>
       <c r="H39">
-        <v>30.03700795492077</v>
+        <v>43.87705336372315</v>
       </c>
       <c r="I39">
-        <v>50.00422329526688</v>
+        <v>55.17136342802855</v>
       </c>
       <c r="J39">
-        <v>56.65996174204891</v>
+        <v>58.93613344946368</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1696,31 +1696,31 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C40">
         <v>3</v>
       </c>
       <c r="D40">
-        <v>6160</v>
+        <v>14378</v>
       </c>
       <c r="E40">
-        <v>42.8863095238095</v>
+        <v>50.72061482820975</v>
       </c>
       <c r="F40">
-        <v>7.099035700923632</v>
+        <v>4.205119244774655</v>
       </c>
       <c r="G40">
-        <v>35.78727382288587</v>
+        <v>46.5154955834351</v>
       </c>
       <c r="H40">
-        <v>28.68823812196224</v>
+        <v>42.31037633866045</v>
       </c>
       <c r="I40">
-        <v>49.98534522473313</v>
+        <v>54.92573407298441</v>
       </c>
       <c r="J40">
-        <v>57.08438092565677</v>
+        <v>59.13085331775906</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1728,31 +1728,31 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C41">
         <v>4</v>
       </c>
       <c r="D41">
-        <v>27214</v>
+        <v>76440</v>
       </c>
       <c r="E41">
-        <v>42.06884936674755</v>
+        <v>48.78197278911553</v>
       </c>
       <c r="F41">
-        <v>7.243835736959333</v>
+        <v>4.504189771637932</v>
       </c>
       <c r="G41">
-        <v>34.82501362978822</v>
+        <v>44.2777830174776</v>
       </c>
       <c r="H41">
-        <v>27.58117789282888</v>
+        <v>39.77359324583966</v>
       </c>
       <c r="I41">
-        <v>49.31268510370688</v>
+        <v>53.28616256075346</v>
       </c>
       <c r="J41">
-        <v>56.55652084066622</v>
+        <v>57.79035233239139</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1760,31 +1760,31 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C42">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D42">
-        <v>105820</v>
+        <v>364</v>
       </c>
       <c r="E42">
-        <v>41.78153153153114</v>
+        <v>45.92857142857143</v>
       </c>
       <c r="F42">
-        <v>7.765914528215042</v>
+        <v>3.302192557922638</v>
       </c>
       <c r="G42">
-        <v>34.0156170033161</v>
+        <v>42.62637887064879</v>
       </c>
       <c r="H42">
-        <v>26.24970247510106</v>
+        <v>39.32418631272616</v>
       </c>
       <c r="I42">
-        <v>49.54744605974619</v>
+        <v>49.23076398649407</v>
       </c>
       <c r="J42">
-        <v>57.31336058796123</v>
+        <v>52.53295654441671</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1792,31 +1792,31 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C43">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D43">
-        <v>354772</v>
+        <v>2366</v>
       </c>
       <c r="E43">
-        <v>41.58318863946451</v>
+        <v>47.31868131868139</v>
       </c>
       <c r="F43">
-        <v>7.788109241861181</v>
+        <v>3.654883374734166</v>
       </c>
       <c r="G43">
-        <v>33.79507939760333</v>
+        <v>43.66379794394722</v>
       </c>
       <c r="H43">
-        <v>26.00697015574215</v>
+        <v>40.00891456921306</v>
       </c>
       <c r="I43">
-        <v>49.37129788132569</v>
+        <v>50.97356469341556</v>
       </c>
       <c r="J43">
-        <v>57.15940712318687</v>
+        <v>54.62844806814972</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1824,31 +1824,31 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D44">
-        <v>220</v>
+        <v>14378</v>
       </c>
       <c r="E44">
-        <v>64.58333333333333</v>
+        <v>47.66094032549709</v>
       </c>
       <c r="F44">
-        <v>5.131185348566761</v>
+        <v>4.236780057270666</v>
       </c>
       <c r="G44">
-        <v>59.45214798476657</v>
+        <v>43.42416026822643</v>
       </c>
       <c r="H44">
-        <v>54.32096263619981</v>
+        <v>39.18738021095577</v>
       </c>
       <c r="I44">
-        <v>69.71451868190009</v>
+        <v>51.89772038276776</v>
       </c>
       <c r="J44">
-        <v>74.84570403046685</v>
+        <v>56.13450044003842</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1856,31 +1856,31 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45">
-        <v>1210</v>
+        <v>76440</v>
       </c>
       <c r="E45">
-        <v>62.12121212121205</v>
+        <v>48.92551020408168</v>
       </c>
       <c r="F45">
-        <v>6.133665175249102</v>
+        <v>4.720318431609755</v>
       </c>
       <c r="G45">
-        <v>55.98754694596295</v>
+        <v>44.20519177247193</v>
       </c>
       <c r="H45">
-        <v>49.85388177071385</v>
+        <v>39.48487334086217</v>
       </c>
       <c r="I45">
-        <v>68.25487729646116</v>
+        <v>53.64582863569144</v>
       </c>
       <c r="J45">
-        <v>74.38854247171025</v>
+        <v>58.36614706730119</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1888,31 +1888,31 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D46">
-        <v>6160</v>
+        <v>286</v>
       </c>
       <c r="E46">
-        <v>61.69702380952384</v>
+        <v>42.53846153846155</v>
       </c>
       <c r="F46">
-        <v>6.694113606344837</v>
+        <v>3.737189544966478</v>
       </c>
       <c r="G46">
-        <v>55.00291020317901</v>
+        <v>38.80127199349507</v>
       </c>
       <c r="H46">
-        <v>48.30879659683417</v>
+        <v>35.06408244852859</v>
       </c>
       <c r="I46">
-        <v>68.39113741586868</v>
+        <v>46.27565108342802</v>
       </c>
       <c r="J46">
-        <v>75.08525102221351</v>
+        <v>50.0128406283945</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -1920,31 +1920,31 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47">
-        <v>27214</v>
+        <v>1716</v>
       </c>
       <c r="E47">
-        <v>62.13015359741313</v>
+        <v>40.66025641025642</v>
       </c>
       <c r="F47">
-        <v>6.945819253260119</v>
+        <v>4.198592676004279</v>
       </c>
       <c r="G47">
-        <v>55.18433434415301</v>
+        <v>36.46166373425213</v>
       </c>
       <c r="H47">
-        <v>48.23851509089289</v>
+        <v>32.26307105824786</v>
       </c>
       <c r="I47">
-        <v>69.07597285067325</v>
+        <v>44.8588490862607</v>
       </c>
       <c r="J47">
-        <v>76.02179210393336</v>
+        <v>49.05744176226497</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1952,31 +1952,31 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48">
-        <v>105820</v>
+        <v>9581</v>
       </c>
       <c r="E48">
-        <v>62.31434511434528</v>
+        <v>41.51572904707237</v>
       </c>
       <c r="F48">
-        <v>7.102039230745189</v>
+        <v>5.145198418671137</v>
       </c>
       <c r="G48">
-        <v>55.21230588360009</v>
+        <v>36.37053062840123</v>
       </c>
       <c r="H48">
-        <v>48.1102666528549</v>
+        <v>31.22533220973009</v>
       </c>
       <c r="I48">
-        <v>69.41638434509046</v>
+        <v>46.66092746574351</v>
       </c>
       <c r="J48">
-        <v>76.51842357583566</v>
+        <v>51.80612588441464</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -1984,31 +1984,31 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C49">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D49">
-        <v>354772</v>
+        <v>46618</v>
       </c>
       <c r="E49">
-        <v>62.44787920128951</v>
+        <v>41.02305332704104</v>
       </c>
       <c r="F49">
-        <v>7.499282153110954</v>
+        <v>5.370767536404617</v>
       </c>
       <c r="G49">
-        <v>54.94859704817856</v>
+        <v>35.65228579063643</v>
       </c>
       <c r="H49">
-        <v>47.4493148950676</v>
+        <v>30.28151825423181</v>
       </c>
       <c r="I49">
-        <v>69.94716135440046</v>
+        <v>46.39382086344565</v>
       </c>
       <c r="J49">
-        <v>77.44644350751142</v>
+        <v>51.76458839985028</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2016,31 +2016,31 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50">
-        <v>220</v>
+        <v>455</v>
       </c>
       <c r="E50">
-        <v>52.4166666666667</v>
+        <v>46.53333333333331</v>
       </c>
       <c r="F50">
-        <v>4.677015234470264</v>
+        <v>3.477831690120536</v>
       </c>
       <c r="G50">
-        <v>47.73965143219644</v>
+        <v>43.05550164321277</v>
       </c>
       <c r="H50">
-        <v>43.06263619772617</v>
+        <v>39.57766995309224</v>
       </c>
       <c r="I50">
-        <v>57.09368190113696</v>
+        <v>50.01116502345385</v>
       </c>
       <c r="J50">
-        <v>61.77069713560723</v>
+        <v>53.48899671357438</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2048,31 +2048,31 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C51">
         <v>2</v>
       </c>
       <c r="D51">
-        <v>1210</v>
+        <v>3185</v>
       </c>
       <c r="E51">
-        <v>53.78787878787877</v>
+        <v>45.53095238095239</v>
       </c>
       <c r="F51">
-        <v>5.758334019948165</v>
+        <v>4.099227475871417</v>
       </c>
       <c r="G51">
-        <v>48.02954476793061</v>
+        <v>41.43172490508098</v>
       </c>
       <c r="H51">
-        <v>42.27121074798244</v>
+        <v>37.33249742920956</v>
       </c>
       <c r="I51">
-        <v>59.54621280782694</v>
+        <v>49.63017985682381</v>
       </c>
       <c r="J51">
-        <v>65.30454682777511</v>
+        <v>53.72940733269522</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2080,31 +2080,31 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C52">
         <v>3</v>
       </c>
       <c r="D52">
-        <v>6160</v>
+        <v>20930</v>
       </c>
       <c r="E52">
-        <v>56.16011904761869</v>
+        <v>43.66992753623186</v>
       </c>
       <c r="F52">
-        <v>5.970049702151853</v>
+        <v>4.380765998873653</v>
       </c>
       <c r="G52">
-        <v>50.19006934546683</v>
+        <v>39.2891615373582</v>
       </c>
       <c r="H52">
-        <v>44.22001964331498</v>
+        <v>34.90839553848456</v>
       </c>
       <c r="I52">
-        <v>62.13016874977054</v>
+        <v>48.05069353510552</v>
       </c>
       <c r="J52">
-        <v>68.10021845192239</v>
+        <v>52.43145953397917</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2112,31 +2112,31 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C53">
         <v>4</v>
       </c>
       <c r="D53">
-        <v>27214</v>
+        <v>120757</v>
       </c>
       <c r="E53">
-        <v>57.9420641336567</v>
+        <v>42.963576990706</v>
       </c>
       <c r="F53">
-        <v>6.18521009925209</v>
+        <v>4.652650189212832</v>
       </c>
       <c r="G53">
-        <v>51.75685403440461</v>
+        <v>38.31092680149317</v>
       </c>
       <c r="H53">
-        <v>45.57164393515252</v>
+        <v>33.65827661228034</v>
       </c>
       <c r="I53">
-        <v>64.12727423290879</v>
+        <v>47.61622717991884</v>
       </c>
       <c r="J53">
-        <v>70.31248433216088</v>
+        <v>52.26887736913167</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2144,31 +2144,31 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C54">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D54">
-        <v>105820</v>
+        <v>286</v>
       </c>
       <c r="E54">
-        <v>57.40554400554419</v>
+        <v>38.46153846153846</v>
       </c>
       <c r="F54">
-        <v>6.82026237149332</v>
+        <v>2.312571988885682</v>
       </c>
       <c r="G54">
-        <v>50.58528163405087</v>
+        <v>36.14896647265278</v>
       </c>
       <c r="H54">
-        <v>43.76501926255755</v>
+        <v>33.83639448376709</v>
       </c>
       <c r="I54">
-        <v>64.22580637703751</v>
+        <v>40.77411045042414</v>
       </c>
       <c r="J54">
-        <v>71.04606874853083</v>
+        <v>43.08668243930983</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2176,31 +2176,31 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C55">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D55">
-        <v>354772</v>
+        <v>1716</v>
       </c>
       <c r="E55">
-        <v>56.15673446607975</v>
+        <v>40.00641025641022</v>
       </c>
       <c r="F55">
-        <v>6.952533981763179</v>
+        <v>2.744549805858759</v>
       </c>
       <c r="G55">
-        <v>49.20420048431657</v>
+        <v>37.26186045055146</v>
       </c>
       <c r="H55">
-        <v>42.25166650255339</v>
+        <v>34.5173106446927</v>
       </c>
       <c r="I55">
-        <v>63.10926844784293</v>
+        <v>42.75096006226898</v>
       </c>
       <c r="J55">
-        <v>70.0618024296061</v>
+        <v>45.49550986812774</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2208,31 +2208,31 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D56">
-        <v>364</v>
+        <v>9581</v>
       </c>
       <c r="E56">
-        <v>50.35714285714285</v>
+        <v>41.23053960964413</v>
       </c>
       <c r="F56">
-        <v>3.390270758545677</v>
+        <v>3.066447900338833</v>
       </c>
       <c r="G56">
-        <v>46.96687209859718</v>
+        <v>38.1640917093053</v>
       </c>
       <c r="H56">
-        <v>43.5766013400515</v>
+        <v>35.09764380896646</v>
       </c>
       <c r="I56">
-        <v>53.74741361568853</v>
+        <v>44.29698750998296</v>
       </c>
       <c r="J56">
-        <v>57.1376843742342</v>
+        <v>47.36343541032179</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2240,927 +2240,31 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C57">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57">
-        <v>2366</v>
+        <v>46618</v>
       </c>
       <c r="E57">
-        <v>51.40659340659342</v>
+        <v>41.45608777725337</v>
       </c>
       <c r="F57">
-        <v>3.764770021435135</v>
+        <v>3.695994151402893</v>
       </c>
       <c r="G57">
-        <v>47.64182338515828</v>
+        <v>37.76009362585048</v>
       </c>
       <c r="H57">
-        <v>43.87705336372315</v>
+        <v>34.06409947444759</v>
       </c>
       <c r="I57">
-        <v>55.17136342802855</v>
+        <v>45.15208192865627</v>
       </c>
       <c r="J57">
-        <v>58.93613344946368</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="1">
-        <v>56</v>
-      </c>
-      <c r="B58" t="s">
-        <v>18</v>
-      </c>
-      <c r="C58">
-        <v>3</v>
-      </c>
-      <c r="D58">
-        <v>14378</v>
-      </c>
-      <c r="E58">
-        <v>50.72061482820975</v>
-      </c>
-      <c r="F58">
-        <v>4.205119244774655</v>
-      </c>
-      <c r="G58">
-        <v>46.5154955834351</v>
-      </c>
-      <c r="H58">
-        <v>42.31037633866045</v>
-      </c>
-      <c r="I58">
-        <v>54.92573407298441</v>
-      </c>
-      <c r="J58">
-        <v>59.13085331775906</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="1">
-        <v>57</v>
-      </c>
-      <c r="B59" t="s">
-        <v>18</v>
-      </c>
-      <c r="C59">
-        <v>4</v>
-      </c>
-      <c r="D59">
-        <v>76440</v>
-      </c>
-      <c r="E59">
-        <v>48.78197278911553</v>
-      </c>
-      <c r="F59">
-        <v>4.504189771637932</v>
-      </c>
-      <c r="G59">
-        <v>44.2777830174776</v>
-      </c>
-      <c r="H59">
-        <v>39.77359324583966</v>
-      </c>
-      <c r="I59">
-        <v>53.28616256075346</v>
-      </c>
-      <c r="J59">
-        <v>57.79035233239139</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="1">
-        <v>58</v>
-      </c>
-      <c r="B60" t="s">
-        <v>18</v>
-      </c>
-      <c r="C60">
-        <v>5</v>
-      </c>
-      <c r="D60">
-        <v>360152</v>
-      </c>
-      <c r="E60">
-        <v>48.60875685821532</v>
-      </c>
-      <c r="F60">
-        <v>4.834820211364923</v>
-      </c>
-      <c r="G60">
-        <v>43.77393664685039</v>
-      </c>
-      <c r="H60">
-        <v>38.93911643548547</v>
-      </c>
-      <c r="I60">
-        <v>53.44357706958024</v>
-      </c>
-      <c r="J60">
-        <v>58.27839728094516</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="1">
-        <v>59</v>
-      </c>
-      <c r="B61" t="s">
-        <v>18</v>
-      </c>
-      <c r="C61">
-        <v>6</v>
-      </c>
-      <c r="D61">
-        <v>1472120</v>
-      </c>
-      <c r="E61">
-        <v>48.67409042741073</v>
-      </c>
-      <c r="F61">
-        <v>5.615226245029375</v>
-      </c>
-      <c r="G61">
-        <v>43.05886418238135</v>
-      </c>
-      <c r="H61">
-        <v>37.44363793735197</v>
-      </c>
-      <c r="I61">
-        <v>54.2893166724401</v>
-      </c>
-      <c r="J61">
-        <v>59.90454291746948</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="1">
-        <v>60</v>
-      </c>
-      <c r="B62" t="s">
-        <v>19</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="D62">
-        <v>364</v>
-      </c>
-      <c r="E62">
-        <v>45.92857142857143</v>
-      </c>
-      <c r="F62">
-        <v>3.302192557922638</v>
-      </c>
-      <c r="G62">
-        <v>42.62637887064879</v>
-      </c>
-      <c r="H62">
-        <v>39.32418631272616</v>
-      </c>
-      <c r="I62">
-        <v>49.23076398649407</v>
-      </c>
-      <c r="J62">
-        <v>52.53295654441671</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="A63" s="1">
-        <v>61</v>
-      </c>
-      <c r="B63" t="s">
-        <v>19</v>
-      </c>
-      <c r="C63">
-        <v>2</v>
-      </c>
-      <c r="D63">
-        <v>2366</v>
-      </c>
-      <c r="E63">
-        <v>47.31868131868139</v>
-      </c>
-      <c r="F63">
-        <v>3.654883374734166</v>
-      </c>
-      <c r="G63">
-        <v>43.66379794394722</v>
-      </c>
-      <c r="H63">
-        <v>40.00891456921306</v>
-      </c>
-      <c r="I63">
-        <v>50.97356469341556</v>
-      </c>
-      <c r="J63">
-        <v>54.62844806814972</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
-      <c r="A64" s="1">
-        <v>62</v>
-      </c>
-      <c r="B64" t="s">
-        <v>19</v>
-      </c>
-      <c r="C64">
-        <v>3</v>
-      </c>
-      <c r="D64">
-        <v>14378</v>
-      </c>
-      <c r="E64">
-        <v>47.66094032549709</v>
-      </c>
-      <c r="F64">
-        <v>4.236780057270666</v>
-      </c>
-      <c r="G64">
-        <v>43.42416026822643</v>
-      </c>
-      <c r="H64">
-        <v>39.18738021095577</v>
-      </c>
-      <c r="I64">
-        <v>51.89772038276776</v>
-      </c>
-      <c r="J64">
-        <v>56.13450044003842</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
-      <c r="A65" s="1">
-        <v>63</v>
-      </c>
-      <c r="B65" t="s">
-        <v>19</v>
-      </c>
-      <c r="C65">
-        <v>4</v>
-      </c>
-      <c r="D65">
-        <v>76440</v>
-      </c>
-      <c r="E65">
-        <v>48.92551020408168</v>
-      </c>
-      <c r="F65">
-        <v>4.720318431609755</v>
-      </c>
-      <c r="G65">
-        <v>44.20519177247193</v>
-      </c>
-      <c r="H65">
-        <v>39.48487334086217</v>
-      </c>
-      <c r="I65">
-        <v>53.64582863569144</v>
-      </c>
-      <c r="J65">
-        <v>58.36614706730119</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
-      <c r="A66" s="1">
-        <v>64</v>
-      </c>
-      <c r="B66" t="s">
-        <v>19</v>
-      </c>
-      <c r="C66">
-        <v>5</v>
-      </c>
-      <c r="D66">
-        <v>360152</v>
-      </c>
-      <c r="E66">
-        <v>50.63373520069113</v>
-      </c>
-      <c r="F66">
-        <v>4.874730107841847</v>
-      </c>
-      <c r="G66">
-        <v>45.75900509284929</v>
-      </c>
-      <c r="H66">
-        <v>40.88427498500744</v>
-      </c>
-      <c r="I66">
-        <v>55.50846530853298</v>
-      </c>
-      <c r="J66">
-        <v>60.38319541637483</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10">
-      <c r="A67" s="1">
-        <v>65</v>
-      </c>
-      <c r="B67" t="s">
-        <v>19</v>
-      </c>
-      <c r="C67">
-        <v>6</v>
-      </c>
-      <c r="D67">
-        <v>1472120</v>
-      </c>
-      <c r="E67">
-        <v>51.31782938890694</v>
-      </c>
-      <c r="F67">
-        <v>5.043459031467926</v>
-      </c>
-      <c r="G67">
-        <v>46.27437035743901</v>
-      </c>
-      <c r="H67">
-        <v>41.23091132597109</v>
-      </c>
-      <c r="I67">
-        <v>56.36128842037486</v>
-      </c>
-      <c r="J67">
-        <v>61.40474745184279</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
-      <c r="A68" s="1">
-        <v>66</v>
-      </c>
-      <c r="B68" t="s">
-        <v>20</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68">
-        <v>286</v>
-      </c>
-      <c r="E68">
-        <v>42.53846153846155</v>
-      </c>
-      <c r="F68">
-        <v>3.737189544966478</v>
-      </c>
-      <c r="G68">
-        <v>38.80127199349507</v>
-      </c>
-      <c r="H68">
-        <v>35.06408244852859</v>
-      </c>
-      <c r="I68">
-        <v>46.27565108342802</v>
-      </c>
-      <c r="J68">
-        <v>50.0128406283945</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
-      <c r="A69" s="1">
-        <v>67</v>
-      </c>
-      <c r="B69" t="s">
-        <v>20</v>
-      </c>
-      <c r="C69">
-        <v>2</v>
-      </c>
-      <c r="D69">
-        <v>1716</v>
-      </c>
-      <c r="E69">
-        <v>40.66025641025642</v>
-      </c>
-      <c r="F69">
-        <v>4.198592676004279</v>
-      </c>
-      <c r="G69">
-        <v>36.46166373425213</v>
-      </c>
-      <c r="H69">
-        <v>32.26307105824786</v>
-      </c>
-      <c r="I69">
-        <v>44.8588490862607</v>
-      </c>
-      <c r="J69">
-        <v>49.05744176226497</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10">
-      <c r="A70" s="1">
-        <v>68</v>
-      </c>
-      <c r="B70" t="s">
-        <v>20</v>
-      </c>
-      <c r="C70">
-        <v>3</v>
-      </c>
-      <c r="D70">
-        <v>9581</v>
-      </c>
-      <c r="E70">
-        <v>41.51572904707237</v>
-      </c>
-      <c r="F70">
-        <v>5.145198418671137</v>
-      </c>
-      <c r="G70">
-        <v>36.37053062840123</v>
-      </c>
-      <c r="H70">
-        <v>31.22533220973009</v>
-      </c>
-      <c r="I70">
-        <v>46.66092746574351</v>
-      </c>
-      <c r="J70">
-        <v>51.80612588441464</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
-      <c r="A71" s="1">
-        <v>69</v>
-      </c>
-      <c r="B71" t="s">
-        <v>20</v>
-      </c>
-      <c r="C71">
-        <v>4</v>
-      </c>
-      <c r="D71">
-        <v>46618</v>
-      </c>
-      <c r="E71">
-        <v>41.02305332704104</v>
-      </c>
-      <c r="F71">
-        <v>5.370767536404617</v>
-      </c>
-      <c r="G71">
-        <v>35.65228579063643</v>
-      </c>
-      <c r="H71">
-        <v>30.28151825423181</v>
-      </c>
-      <c r="I71">
-        <v>46.39382086344565</v>
-      </c>
-      <c r="J71">
-        <v>51.76458839985028</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
-      <c r="A72" s="1">
-        <v>70</v>
-      </c>
-      <c r="B72" t="s">
-        <v>20</v>
-      </c>
-      <c r="C72">
-        <v>5</v>
-      </c>
-      <c r="D72">
-        <v>200343</v>
-      </c>
-      <c r="E72">
-        <v>42.27944325481792</v>
-      </c>
-      <c r="F72">
-        <v>5.984066670192131</v>
-      </c>
-      <c r="G72">
-        <v>36.29537658462579</v>
-      </c>
-      <c r="H72">
-        <v>30.31130991443366</v>
-      </c>
-      <c r="I72">
-        <v>48.26350992501005</v>
-      </c>
-      <c r="J72">
-        <v>54.24757659520218</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10">
-      <c r="A73" s="1">
-        <v>71</v>
-      </c>
-      <c r="B73" t="s">
-        <v>20</v>
-      </c>
-      <c r="C73">
-        <v>6</v>
-      </c>
-      <c r="D73">
-        <v>744458</v>
-      </c>
-      <c r="E73">
-        <v>42.29416944945191</v>
-      </c>
-      <c r="F73">
-        <v>6.048542938109028</v>
-      </c>
-      <c r="G73">
-        <v>36.24562651134288</v>
-      </c>
-      <c r="H73">
-        <v>30.19708357323386</v>
-      </c>
-      <c r="I73">
-        <v>48.34271238756094</v>
-      </c>
-      <c r="J73">
-        <v>54.39125532566997</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10">
-      <c r="A74" s="1">
-        <v>72</v>
-      </c>
-      <c r="B74" t="s">
-        <v>21</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="D74">
-        <v>455</v>
-      </c>
-      <c r="E74">
-        <v>46.53333333333331</v>
-      </c>
-      <c r="F74">
-        <v>3.477831690120536</v>
-      </c>
-      <c r="G74">
-        <v>43.05550164321277</v>
-      </c>
-      <c r="H74">
-        <v>39.57766995309224</v>
-      </c>
-      <c r="I74">
-        <v>50.01116502345385</v>
-      </c>
-      <c r="J74">
-        <v>53.48899671357438</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
-      <c r="A75" s="1">
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
-        <v>21</v>
-      </c>
-      <c r="C75">
-        <v>2</v>
-      </c>
-      <c r="D75">
-        <v>3185</v>
-      </c>
-      <c r="E75">
-        <v>45.53095238095239</v>
-      </c>
-      <c r="F75">
-        <v>4.099227475871417</v>
-      </c>
-      <c r="G75">
-        <v>41.43172490508098</v>
-      </c>
-      <c r="H75">
-        <v>37.33249742920956</v>
-      </c>
-      <c r="I75">
-        <v>49.63017985682381</v>
-      </c>
-      <c r="J75">
-        <v>53.72940733269522</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="B76" t="s">
-        <v>21</v>
-      </c>
-      <c r="C76">
-        <v>3</v>
-      </c>
-      <c r="D76">
-        <v>20930</v>
-      </c>
-      <c r="E76">
-        <v>43.66992753623186</v>
-      </c>
-      <c r="F76">
-        <v>4.380765998873653</v>
-      </c>
-      <c r="G76">
-        <v>39.2891615373582</v>
-      </c>
-      <c r="H76">
-        <v>34.90839553848456</v>
-      </c>
-      <c r="I76">
-        <v>48.05069353510552</v>
-      </c>
-      <c r="J76">
-        <v>52.43145953397917</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
-      <c r="B77" t="s">
-        <v>21</v>
-      </c>
-      <c r="C77">
-        <v>4</v>
-      </c>
-      <c r="D77">
-        <v>120757</v>
-      </c>
-      <c r="E77">
-        <v>42.963576990706</v>
-      </c>
-      <c r="F77">
-        <v>4.652650189212832</v>
-      </c>
-      <c r="G77">
-        <v>38.31092680149317</v>
-      </c>
-      <c r="H77">
-        <v>33.65827661228034</v>
-      </c>
-      <c r="I77">
-        <v>47.61622717991884</v>
-      </c>
-      <c r="J77">
-        <v>52.26887736913167</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10">
-      <c r="A78" s="1">
-        <v>76</v>
-      </c>
-      <c r="B78" t="s">
-        <v>21</v>
-      </c>
-      <c r="C78">
-        <v>5</v>
-      </c>
-      <c r="D78">
-        <v>619411</v>
-      </c>
-      <c r="E78">
-        <v>44.05909081369186</v>
-      </c>
-      <c r="F78">
-        <v>5.245797068680192</v>
-      </c>
-      <c r="G78">
-        <v>38.81329374501167</v>
-      </c>
-      <c r="H78">
-        <v>33.56749667633147</v>
-      </c>
-      <c r="I78">
-        <v>49.30488788237205</v>
-      </c>
-      <c r="J78">
-        <v>54.55068495105225</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10">
-      <c r="A79" s="1">
-        <v>77</v>
-      </c>
-      <c r="B79" t="s">
-        <v>21</v>
-      </c>
-      <c r="C79">
-        <v>6</v>
-      </c>
-      <c r="D79">
-        <v>2765997</v>
-      </c>
-      <c r="E79">
-        <v>44.77892142809026</v>
-      </c>
-      <c r="F79">
-        <v>5.685782719556149</v>
-      </c>
-      <c r="G79">
-        <v>39.09313870853411</v>
-      </c>
-      <c r="H79">
-        <v>33.40735598897797</v>
-      </c>
-      <c r="I79">
-        <v>50.46470414764642</v>
-      </c>
-      <c r="J79">
-        <v>56.15048686720256</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10">
-      <c r="A80" s="1">
-        <v>78</v>
-      </c>
-      <c r="B80" t="s">
-        <v>22</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-      <c r="D80">
-        <v>286</v>
-      </c>
-      <c r="E80">
-        <v>38.46153846153846</v>
-      </c>
-      <c r="F80">
-        <v>2.312571988885682</v>
-      </c>
-      <c r="G80">
-        <v>36.14896647265278</v>
-      </c>
-      <c r="H80">
-        <v>33.83639448376709</v>
-      </c>
-      <c r="I80">
-        <v>40.77411045042414</v>
-      </c>
-      <c r="J80">
-        <v>43.08668243930983</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10">
-      <c r="A81" s="1">
-        <v>79</v>
-      </c>
-      <c r="B81" t="s">
-        <v>22</v>
-      </c>
-      <c r="C81">
-        <v>2</v>
-      </c>
-      <c r="D81">
-        <v>1716</v>
-      </c>
-      <c r="E81">
-        <v>40.00641025641022</v>
-      </c>
-      <c r="F81">
-        <v>2.744549805858759</v>
-      </c>
-      <c r="G81">
-        <v>37.26186045055146</v>
-      </c>
-      <c r="H81">
-        <v>34.5173106446927</v>
-      </c>
-      <c r="I81">
-        <v>42.75096006226898</v>
-      </c>
-      <c r="J81">
-        <v>45.49550986812774</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="B82" t="s">
-        <v>22</v>
-      </c>
-      <c r="C82">
-        <v>3</v>
-      </c>
-      <c r="D82">
-        <v>9581</v>
-      </c>
-      <c r="E82">
-        <v>41.23053960964413</v>
-      </c>
-      <c r="F82">
-        <v>3.066447900338833</v>
-      </c>
-      <c r="G82">
-        <v>38.1640917093053</v>
-      </c>
-      <c r="H82">
-        <v>35.09764380896646</v>
-      </c>
-      <c r="I82">
-        <v>44.29698750998296</v>
-      </c>
-      <c r="J82">
-        <v>47.36343541032179</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
-      <c r="B83" t="s">
-        <v>22</v>
-      </c>
-      <c r="C83">
-        <v>4</v>
-      </c>
-      <c r="D83">
-        <v>46618</v>
-      </c>
-      <c r="E83">
-        <v>41.45608777725337</v>
-      </c>
-      <c r="F83">
-        <v>3.695994151402893</v>
-      </c>
-      <c r="G83">
-        <v>37.76009362585048</v>
-      </c>
-      <c r="H83">
-        <v>34.06409947444759</v>
-      </c>
-      <c r="I83">
-        <v>45.15208192865627</v>
-      </c>
-      <c r="J83">
         <v>48.84807608005916</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10">
-      <c r="A84" s="1">
-        <v>82</v>
-      </c>
-      <c r="B84" t="s">
-        <v>22</v>
-      </c>
-      <c r="C84">
-        <v>5</v>
-      </c>
-      <c r="D84">
-        <v>200343</v>
-      </c>
-      <c r="E84">
-        <v>41.46616702355448</v>
-      </c>
-      <c r="F84">
-        <v>3.723719438780323</v>
-      </c>
-      <c r="G84">
-        <v>37.74244758477416</v>
-      </c>
-      <c r="H84">
-        <v>34.01872814599383</v>
-      </c>
-      <c r="I84">
-        <v>45.1898864623348</v>
-      </c>
-      <c r="J84">
-        <v>48.91360590111513</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
-      <c r="B85" t="s">
-        <v>22</v>
-      </c>
-      <c r="C85">
-        <v>6</v>
-      </c>
-      <c r="D85">
-        <v>744458</v>
-      </c>
-      <c r="E85">
-        <v>42.65732882177367</v>
-      </c>
-      <c r="F85">
-        <v>4.523064996403139</v>
-      </c>
-      <c r="G85">
-        <v>38.13426382537054</v>
-      </c>
-      <c r="H85">
-        <v>33.6111988289674</v>
-      </c>
-      <c r="I85">
-        <v>47.18039381817681</v>
-      </c>
-      <c r="J85">
-        <v>51.70345881457995</v>
       </c>
     </row>
   </sheetData>

--- a/HandAvg_byLevel_output.xlsx
+++ b/HandAvg_byLevel_output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="23">
   <si>
     <t>Class</t>
   </si>
@@ -440,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:J85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -608,31 +608,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>455</v>
+        <v>200343</v>
       </c>
       <c r="E6">
-        <v>45.00000000000002</v>
+        <v>43.64646680942187</v>
       </c>
       <c r="F6">
-        <v>3.057242670440445</v>
+        <v>5.377058245078711</v>
       </c>
       <c r="G6">
-        <v>41.94275732955958</v>
+        <v>38.26940856434315</v>
       </c>
       <c r="H6">
-        <v>38.88551465911913</v>
+        <v>32.89235031926444</v>
       </c>
       <c r="I6">
-        <v>48.05724267044047</v>
+        <v>49.02352505450058</v>
       </c>
       <c r="J6">
-        <v>51.11448534088091</v>
+        <v>54.40058329957929</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -640,31 +640,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>3185</v>
+        <v>744458</v>
       </c>
       <c r="E7">
-        <v>46.10714285714283</v>
+        <v>43.03688052247385</v>
       </c>
       <c r="F7">
-        <v>3.498686141687275</v>
+        <v>5.583826694255356</v>
       </c>
       <c r="G7">
-        <v>42.60845671545556</v>
+        <v>37.45305382821849</v>
       </c>
       <c r="H7">
-        <v>39.10977057376829</v>
+        <v>31.86922713396314</v>
       </c>
       <c r="I7">
-        <v>49.60582899883011</v>
+        <v>48.62070721672921</v>
       </c>
       <c r="J7">
-        <v>53.10451514051738</v>
+        <v>54.20453391098457</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -675,28 +675,28 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>20930</v>
+        <v>455</v>
       </c>
       <c r="E8">
-        <v>46.33913043478262</v>
+        <v>45.00000000000002</v>
       </c>
       <c r="F8">
-        <v>3.957028308336987</v>
+        <v>3.057242670440445</v>
       </c>
       <c r="G8">
-        <v>42.38210212644563</v>
+        <v>41.94275732955958</v>
       </c>
       <c r="H8">
-        <v>38.42507381810864</v>
+        <v>38.88551465911913</v>
       </c>
       <c r="I8">
-        <v>50.29615874311961</v>
+        <v>48.05724267044047</v>
       </c>
       <c r="J8">
-        <v>54.25318705145659</v>
+        <v>51.11448534088091</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -707,28 +707,28 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>120757</v>
+        <v>3185</v>
       </c>
       <c r="E9">
-        <v>46.80903039437329</v>
+        <v>46.10714285714283</v>
       </c>
       <c r="F9">
-        <v>4.552776385209506</v>
+        <v>3.498686141687275</v>
       </c>
       <c r="G9">
-        <v>42.25625400916378</v>
+        <v>42.60845671545556</v>
       </c>
       <c r="H9">
-        <v>37.70347762395428</v>
+        <v>39.10977057376829</v>
       </c>
       <c r="I9">
-        <v>51.36180677958279</v>
+        <v>49.60582899883011</v>
       </c>
       <c r="J9">
-        <v>55.9145831647923</v>
+        <v>53.10451514051738</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -736,31 +736,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>165</v>
+        <v>20930</v>
       </c>
       <c r="E10">
-        <v>48</v>
+        <v>46.33913043478262</v>
       </c>
       <c r="F10">
-        <v>5.670244865018467</v>
+        <v>3.957028308336987</v>
       </c>
       <c r="G10">
-        <v>42.32975513498153</v>
+        <v>42.38210212644563</v>
       </c>
       <c r="H10">
-        <v>36.65951026996306</v>
+        <v>38.42507381810864</v>
       </c>
       <c r="I10">
-        <v>53.67024486501847</v>
+        <v>50.29615874311961</v>
       </c>
       <c r="J10">
-        <v>59.34048973003694</v>
+        <v>54.25318705145659</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -768,31 +768,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>825</v>
+        <v>120757</v>
       </c>
       <c r="E11">
-        <v>47.8</v>
+        <v>46.80903039437329</v>
       </c>
       <c r="F11">
-        <v>6.424777110712099</v>
+        <v>4.552776385209506</v>
       </c>
       <c r="G11">
-        <v>41.3752228892879</v>
+        <v>42.25625400916378</v>
       </c>
       <c r="H11">
-        <v>34.9504457785758</v>
+        <v>37.70347762395428</v>
       </c>
       <c r="I11">
-        <v>54.2247771107121</v>
+        <v>51.36180677958279</v>
       </c>
       <c r="J11">
-        <v>60.6495542214242</v>
+        <v>55.9145831647923</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -800,31 +800,31 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>3795</v>
+        <v>619411</v>
       </c>
       <c r="E12">
-        <v>50.04565217391304</v>
+        <v>47.3989163361105</v>
       </c>
       <c r="F12">
-        <v>6.813244528449447</v>
+        <v>4.735900462381395</v>
       </c>
       <c r="G12">
-        <v>43.2324076454636</v>
+        <v>42.66301587372911</v>
       </c>
       <c r="H12">
-        <v>36.41916311701415</v>
+        <v>37.92711541134771</v>
       </c>
       <c r="I12">
-        <v>56.85889670236249</v>
+        <v>52.1348167984919</v>
       </c>
       <c r="J12">
-        <v>63.67214123081193</v>
+        <v>56.87071726087329</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -832,31 +832,31 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D13">
-        <v>15081</v>
+        <v>2765997</v>
       </c>
       <c r="E13">
-        <v>50.63840262582057</v>
+        <v>47.88525544918029</v>
       </c>
       <c r="F13">
-        <v>7.534263413915719</v>
+        <v>4.864348645718177</v>
       </c>
       <c r="G13">
-        <v>43.10413921190485</v>
+        <v>43.02090680346211</v>
       </c>
       <c r="H13">
-        <v>35.56987579798913</v>
+        <v>38.15655815774394</v>
       </c>
       <c r="I13">
-        <v>58.17266603973628</v>
+        <v>52.74960409489847</v>
       </c>
       <c r="J13">
-        <v>65.70692945365201</v>
+        <v>57.61395274061665</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -864,31 +864,31 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>220</v>
+        <v>165</v>
       </c>
       <c r="E14">
-        <v>36.33333333333335</v>
+        <v>48</v>
       </c>
       <c r="F14">
-        <v>5.328066907685364</v>
+        <v>5.670244865018467</v>
       </c>
       <c r="G14">
-        <v>31.00526642564799</v>
+        <v>42.32975513498153</v>
       </c>
       <c r="H14">
-        <v>25.67719951796262</v>
+        <v>36.65951026996306</v>
       </c>
       <c r="I14">
-        <v>41.66140024101871</v>
+        <v>53.67024486501847</v>
       </c>
       <c r="J14">
-        <v>46.98946714870408</v>
+        <v>59.34048973003694</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -896,31 +896,31 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15">
-        <v>1210</v>
+        <v>825</v>
       </c>
       <c r="E15">
-        <v>37.62121212121213</v>
+        <v>47.8</v>
       </c>
       <c r="F15">
-        <v>6.979248324687199</v>
+        <v>6.424777110712099</v>
       </c>
       <c r="G15">
-        <v>30.64196379652493</v>
+        <v>41.3752228892879</v>
       </c>
       <c r="H15">
-        <v>23.66271547183774</v>
+        <v>34.9504457785758</v>
       </c>
       <c r="I15">
-        <v>44.60046044589933</v>
+        <v>54.2247771107121</v>
       </c>
       <c r="J15">
-        <v>51.57970877058653</v>
+        <v>60.6495542214242</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -928,31 +928,31 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
       <c r="D16">
-        <v>6160</v>
+        <v>3795</v>
       </c>
       <c r="E16">
-        <v>38.86309523809521</v>
+        <v>50.04565217391304</v>
       </c>
       <c r="F16">
-        <v>7.68260713623516</v>
+        <v>6.813244528449447</v>
       </c>
       <c r="G16">
-        <v>31.18048810186005</v>
+        <v>43.2324076454636</v>
       </c>
       <c r="H16">
-        <v>23.49788096562489</v>
+        <v>36.41916311701415</v>
       </c>
       <c r="I16">
-        <v>46.54570237433037</v>
+        <v>56.85889670236249</v>
       </c>
       <c r="J16">
-        <v>54.22830951056552</v>
+        <v>63.67214123081193</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -960,31 +960,31 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17">
         <v>4</v>
       </c>
       <c r="D17">
-        <v>27214</v>
+        <v>15081</v>
       </c>
       <c r="E17">
-        <v>38.81500943142014</v>
+        <v>50.63840262582057</v>
       </c>
       <c r="F17">
-        <v>8.095854482898568</v>
+        <v>7.534263413915719</v>
       </c>
       <c r="G17">
-        <v>30.71915494852157</v>
+        <v>43.10413921190485</v>
       </c>
       <c r="H17">
-        <v>22.623300465623</v>
+        <v>35.56987579798913</v>
       </c>
       <c r="I17">
-        <v>46.9108639143187</v>
+        <v>58.17266603973628</v>
       </c>
       <c r="J17">
-        <v>55.00671839721727</v>
+        <v>65.70692945365201</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -992,31 +992,31 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D18">
-        <v>364</v>
+        <v>52569</v>
       </c>
       <c r="E18">
-        <v>54.14285714285717</v>
+        <v>51.3932831136221</v>
       </c>
       <c r="F18">
-        <v>3.04183559140866</v>
+        <v>7.568254902298078</v>
       </c>
       <c r="G18">
-        <v>51.10102155144851</v>
+        <v>43.82502821132402</v>
       </c>
       <c r="H18">
-        <v>48.05918596003985</v>
+        <v>36.25677330902595</v>
       </c>
       <c r="I18">
-        <v>57.18469273426584</v>
+        <v>58.96153801592018</v>
       </c>
       <c r="J18">
-        <v>60.22652832567449</v>
+        <v>66.52979291821825</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1024,31 +1024,31 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D19">
-        <v>2366</v>
+        <v>157707</v>
       </c>
       <c r="E19">
-        <v>54.05494505494512</v>
+        <v>52.99435028248588</v>
       </c>
       <c r="F19">
-        <v>3.906663431211801</v>
+        <v>7.847455755772852</v>
       </c>
       <c r="G19">
-        <v>50.14828162373332</v>
+        <v>45.14689452671303</v>
       </c>
       <c r="H19">
-        <v>46.24161819252152</v>
+        <v>37.29943877094017</v>
       </c>
       <c r="I19">
-        <v>57.96160848615693</v>
+        <v>60.84180603825872</v>
       </c>
       <c r="J19">
-        <v>61.86827191736872</v>
+        <v>68.68926179403158</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1056,31 +1056,31 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>14378</v>
+        <v>220</v>
       </c>
       <c r="E20">
-        <v>52.64014466546126</v>
+        <v>36.33333333333335</v>
       </c>
       <c r="F20">
-        <v>4.148660848162105</v>
+        <v>5.328066907685364</v>
       </c>
       <c r="G20">
-        <v>48.49148381729916</v>
+        <v>31.00526642564799</v>
       </c>
       <c r="H20">
-        <v>44.34282296913705</v>
+        <v>25.67719951796262</v>
       </c>
       <c r="I20">
-        <v>56.78880551362337</v>
+        <v>41.66140024101871</v>
       </c>
       <c r="J20">
-        <v>60.93746636178548</v>
+        <v>46.98946714870408</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1088,31 +1088,31 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21">
-        <v>76440</v>
+        <v>1210</v>
       </c>
       <c r="E21">
-        <v>52.11564625850326</v>
+        <v>37.62121212121213</v>
       </c>
       <c r="F21">
-        <v>4.797154543059506</v>
+        <v>6.979248324687199</v>
       </c>
       <c r="G21">
-        <v>47.31849171544376</v>
+        <v>30.64196379652493</v>
       </c>
       <c r="H21">
-        <v>42.52133717238425</v>
+        <v>23.66271547183774</v>
       </c>
       <c r="I21">
-        <v>56.91280080156277</v>
+        <v>44.60046044589933</v>
       </c>
       <c r="J21">
-        <v>61.70995534462227</v>
+        <v>51.57970877058653</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1120,31 +1120,31 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>286</v>
+        <v>6160</v>
       </c>
       <c r="E22">
-        <v>45.53846153846152</v>
+        <v>38.86309523809521</v>
       </c>
       <c r="F22">
-        <v>4.361505020733547</v>
+        <v>7.68260713623516</v>
       </c>
       <c r="G22">
-        <v>41.17695651772797</v>
+        <v>31.18048810186005</v>
       </c>
       <c r="H22">
-        <v>36.81545149699443</v>
+        <v>23.49788096562489</v>
       </c>
       <c r="I22">
-        <v>49.89996655919506</v>
+        <v>46.54570237433037</v>
       </c>
       <c r="J22">
-        <v>54.26147157992861</v>
+        <v>54.22830951056552</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1152,31 +1152,31 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23">
-        <v>1716</v>
+        <v>27214</v>
       </c>
       <c r="E23">
-        <v>45.61858974358979</v>
+        <v>38.81500943142014</v>
       </c>
       <c r="F23">
-        <v>5.818534624974652</v>
+        <v>8.095854482898568</v>
       </c>
       <c r="G23">
-        <v>39.80005511861514</v>
+        <v>30.71915494852157</v>
       </c>
       <c r="H23">
-        <v>33.98152049364049</v>
+        <v>22.623300465623</v>
       </c>
       <c r="I23">
-        <v>51.43712436856445</v>
+        <v>46.9108639143187</v>
       </c>
       <c r="J23">
-        <v>57.2556589935391</v>
+        <v>55.00671839721727</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1184,31 +1184,31 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24">
-        <v>9581</v>
+        <v>105820</v>
       </c>
       <c r="E24">
-        <v>45.55901262916193</v>
+        <v>39.68596673596671</v>
       </c>
       <c r="F24">
-        <v>6.290869997846061</v>
+        <v>8.55977269126641</v>
       </c>
       <c r="G24">
-        <v>39.26814263131587</v>
+        <v>31.1261940447003</v>
       </c>
       <c r="H24">
-        <v>32.97727263346981</v>
+        <v>22.56642135343389</v>
       </c>
       <c r="I24">
-        <v>51.84988262700799</v>
+        <v>48.24573942723312</v>
       </c>
       <c r="J24">
-        <v>58.14075262485404</v>
+        <v>56.80551211849953</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1216,31 +1216,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D25">
-        <v>46618</v>
+        <v>354772</v>
       </c>
       <c r="E25">
-        <v>44.98624351109012</v>
+        <v>41.4277564182065</v>
       </c>
       <c r="F25">
-        <v>6.763226537490131</v>
+        <v>8.883495028221848</v>
       </c>
       <c r="G25">
-        <v>38.22301697359999</v>
+        <v>32.54426138998465</v>
       </c>
       <c r="H25">
-        <v>31.45979043610986</v>
+        <v>23.6607663617628</v>
       </c>
       <c r="I25">
-        <v>51.74947004858026</v>
+        <v>50.31125144642834</v>
       </c>
       <c r="J25">
-        <v>58.51269658607038</v>
+        <v>59.1947464746502</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1248,31 +1248,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26">
-        <v>220</v>
+        <v>364</v>
       </c>
       <c r="E26">
-        <v>42.58333333333335</v>
+        <v>54.14285714285717</v>
       </c>
       <c r="F26">
-        <v>4.939747739382378</v>
+        <v>3.04183559140866</v>
       </c>
       <c r="G26">
-        <v>37.64358559395097</v>
+        <v>51.10102155144851</v>
       </c>
       <c r="H26">
-        <v>32.70383785456859</v>
+        <v>48.05918596003985</v>
       </c>
       <c r="I26">
-        <v>47.52308107271573</v>
+        <v>57.18469273426584</v>
       </c>
       <c r="J26">
-        <v>52.46282881209811</v>
+        <v>60.22652832567449</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1280,31 +1280,31 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C27">
         <v>2</v>
       </c>
       <c r="D27">
-        <v>1210</v>
+        <v>2366</v>
       </c>
       <c r="E27">
-        <v>43.34848484848484</v>
+        <v>54.05494505494512</v>
       </c>
       <c r="F27">
-        <v>6.655738446782036</v>
+        <v>3.906663431211801</v>
       </c>
       <c r="G27">
-        <v>36.6927464017028</v>
+        <v>50.14828162373332</v>
       </c>
       <c r="H27">
-        <v>30.03700795492077</v>
+        <v>46.24161819252152</v>
       </c>
       <c r="I27">
-        <v>50.00422329526688</v>
+        <v>57.96160848615693</v>
       </c>
       <c r="J27">
-        <v>56.65996174204891</v>
+        <v>61.86827191736872</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1312,31 +1312,31 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C28">
         <v>3</v>
       </c>
       <c r="D28">
-        <v>6160</v>
+        <v>14378</v>
       </c>
       <c r="E28">
-        <v>42.8863095238095</v>
+        <v>52.64014466546126</v>
       </c>
       <c r="F28">
-        <v>7.099035700923632</v>
+        <v>4.148660848162105</v>
       </c>
       <c r="G28">
-        <v>35.78727382288587</v>
+        <v>48.49148381729916</v>
       </c>
       <c r="H28">
-        <v>28.68823812196224</v>
+        <v>44.34282296913705</v>
       </c>
       <c r="I28">
-        <v>49.98534522473313</v>
+        <v>56.78880551362337</v>
       </c>
       <c r="J28">
-        <v>57.08438092565677</v>
+        <v>60.93746636178548</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1344,31 +1344,31 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C29">
         <v>4</v>
       </c>
       <c r="D29">
-        <v>27214</v>
+        <v>76440</v>
       </c>
       <c r="E29">
-        <v>42.06884936674755</v>
+        <v>52.11564625850326</v>
       </c>
       <c r="F29">
-        <v>7.243835736959333</v>
+        <v>4.797154543059506</v>
       </c>
       <c r="G29">
-        <v>34.82501362978822</v>
+        <v>47.31849171544376</v>
       </c>
       <c r="H29">
-        <v>27.58117789282888</v>
+        <v>42.52133717238425</v>
       </c>
       <c r="I29">
-        <v>49.31268510370688</v>
+        <v>56.91280080156277</v>
       </c>
       <c r="J29">
-        <v>56.55652084066622</v>
+        <v>61.70995534462227</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1376,31 +1376,31 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D30">
-        <v>220</v>
+        <v>360152</v>
       </c>
       <c r="E30">
-        <v>64.58333333333333</v>
+        <v>51.1991770141487</v>
       </c>
       <c r="F30">
-        <v>5.131185348566761</v>
+        <v>4.823553655050871</v>
       </c>
       <c r="G30">
-        <v>59.45214798476657</v>
+        <v>46.37562335909783</v>
       </c>
       <c r="H30">
-        <v>54.32096263619981</v>
+        <v>41.55206970404696</v>
       </c>
       <c r="I30">
-        <v>69.71451868190009</v>
+        <v>56.02273066919958</v>
       </c>
       <c r="J30">
-        <v>74.84570403046685</v>
+        <v>60.84628432425045</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1408,31 +1408,31 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D31">
-        <v>1210</v>
+        <v>1472120</v>
       </c>
       <c r="E31">
-        <v>62.12121212121205</v>
+        <v>50.87512363122645</v>
       </c>
       <c r="F31">
-        <v>6.133665175249102</v>
+        <v>5.135666606753321</v>
       </c>
       <c r="G31">
-        <v>55.98754694596295</v>
+        <v>45.73945702447313</v>
       </c>
       <c r="H31">
-        <v>49.85388177071385</v>
+        <v>40.60379041771981</v>
       </c>
       <c r="I31">
-        <v>68.25487729646116</v>
+        <v>56.01079023797977</v>
       </c>
       <c r="J31">
-        <v>74.38854247171025</v>
+        <v>61.14645684473309</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1440,31 +1440,31 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>6160</v>
+        <v>286</v>
       </c>
       <c r="E32">
-        <v>61.69702380952384</v>
+        <v>45.53846153846152</v>
       </c>
       <c r="F32">
-        <v>6.694113606344837</v>
+        <v>4.361505020733547</v>
       </c>
       <c r="G32">
-        <v>55.00291020317901</v>
+        <v>41.17695651772797</v>
       </c>
       <c r="H32">
-        <v>48.30879659683417</v>
+        <v>36.81545149699443</v>
       </c>
       <c r="I32">
-        <v>68.39113741586868</v>
+        <v>49.89996655919506</v>
       </c>
       <c r="J32">
-        <v>75.08525102221351</v>
+        <v>54.26147157992861</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1472,31 +1472,31 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>27214</v>
+        <v>1716</v>
       </c>
       <c r="E33">
-        <v>62.13015359741313</v>
+        <v>45.61858974358979</v>
       </c>
       <c r="F33">
-        <v>6.945819253260119</v>
+        <v>5.818534624974652</v>
       </c>
       <c r="G33">
-        <v>55.18433434415301</v>
+        <v>39.80005511861514</v>
       </c>
       <c r="H33">
-        <v>48.23851509089289</v>
+        <v>33.98152049364049</v>
       </c>
       <c r="I33">
-        <v>69.07597285067325</v>
+        <v>51.43712436856445</v>
       </c>
       <c r="J33">
-        <v>76.02179210393336</v>
+        <v>57.2556589935391</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1504,31 +1504,31 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D34">
-        <v>220</v>
+        <v>9581</v>
       </c>
       <c r="E34">
-        <v>52.4166666666667</v>
+        <v>45.55901262916193</v>
       </c>
       <c r="F34">
-        <v>4.677015234470264</v>
+        <v>6.290869997846061</v>
       </c>
       <c r="G34">
-        <v>47.73965143219644</v>
+        <v>39.26814263131587</v>
       </c>
       <c r="H34">
-        <v>43.06263619772617</v>
+        <v>32.97727263346981</v>
       </c>
       <c r="I34">
-        <v>57.09368190113696</v>
+        <v>51.84988262700799</v>
       </c>
       <c r="J34">
-        <v>61.77069713560723</v>
+        <v>58.14075262485404</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1536,31 +1536,31 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35">
-        <v>1210</v>
+        <v>46618</v>
       </c>
       <c r="E35">
-        <v>53.78787878787877</v>
+        <v>44.98624351109012</v>
       </c>
       <c r="F35">
-        <v>5.758334019948165</v>
+        <v>6.763226537490131</v>
       </c>
       <c r="G35">
-        <v>48.02954476793061</v>
+        <v>38.22301697359999</v>
       </c>
       <c r="H35">
-        <v>42.27121074798244</v>
+        <v>31.45979043610986</v>
       </c>
       <c r="I35">
-        <v>59.54621280782694</v>
+        <v>51.74947004858026</v>
       </c>
       <c r="J35">
-        <v>65.30454682777511</v>
+        <v>58.51269658607038</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1568,31 +1568,31 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36">
-        <v>6160</v>
+        <v>200343</v>
       </c>
       <c r="E36">
-        <v>56.16011904761869</v>
+        <v>44.88729478943628</v>
       </c>
       <c r="F36">
-        <v>5.970049702151853</v>
+        <v>7.180702218623521</v>
       </c>
       <c r="G36">
-        <v>50.19006934546683</v>
+        <v>37.70659257081276</v>
       </c>
       <c r="H36">
-        <v>44.22001964331498</v>
+        <v>30.52589035218924</v>
       </c>
       <c r="I36">
-        <v>62.13016874977054</v>
+        <v>52.06799700805981</v>
       </c>
       <c r="J36">
-        <v>68.10021845192239</v>
+        <v>59.24869922668333</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1600,31 +1600,31 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C37">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D37">
-        <v>27214</v>
+        <v>744458</v>
       </c>
       <c r="E37">
-        <v>57.9420641336567</v>
+        <v>43.71376222701615</v>
       </c>
       <c r="F37">
-        <v>6.18521009925209</v>
+        <v>7.2058092879052</v>
       </c>
       <c r="G37">
-        <v>51.75685403440461</v>
+        <v>36.50795293911095</v>
       </c>
       <c r="H37">
-        <v>45.57164393515252</v>
+        <v>29.30214365120575</v>
       </c>
       <c r="I37">
-        <v>64.12727423290879</v>
+        <v>50.91957151492136</v>
       </c>
       <c r="J37">
-        <v>70.31248433216088</v>
+        <v>58.12538080282656</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1632,31 +1632,31 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38">
-        <v>364</v>
+        <v>220</v>
       </c>
       <c r="E38">
-        <v>50.35714285714285</v>
+        <v>42.58333333333335</v>
       </c>
       <c r="F38">
-        <v>3.390270758545677</v>
+        <v>4.939747739382378</v>
       </c>
       <c r="G38">
-        <v>46.96687209859718</v>
+        <v>37.64358559395097</v>
       </c>
       <c r="H38">
-        <v>43.5766013400515</v>
+        <v>32.70383785456859</v>
       </c>
       <c r="I38">
-        <v>53.74741361568853</v>
+        <v>47.52308107271573</v>
       </c>
       <c r="J38">
-        <v>57.1376843742342</v>
+        <v>52.46282881209811</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1664,31 +1664,31 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C39">
         <v>2</v>
       </c>
       <c r="D39">
-        <v>2366</v>
+        <v>1210</v>
       </c>
       <c r="E39">
-        <v>51.40659340659342</v>
+        <v>43.34848484848484</v>
       </c>
       <c r="F39">
-        <v>3.764770021435135</v>
+        <v>6.655738446782036</v>
       </c>
       <c r="G39">
-        <v>47.64182338515828</v>
+        <v>36.6927464017028</v>
       </c>
       <c r="H39">
-        <v>43.87705336372315</v>
+        <v>30.03700795492077</v>
       </c>
       <c r="I39">
-        <v>55.17136342802855</v>
+        <v>50.00422329526688</v>
       </c>
       <c r="J39">
-        <v>58.93613344946368</v>
+        <v>56.65996174204891</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1696,31 +1696,31 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C40">
         <v>3</v>
       </c>
       <c r="D40">
-        <v>14378</v>
+        <v>6160</v>
       </c>
       <c r="E40">
-        <v>50.72061482820975</v>
+        <v>42.8863095238095</v>
       </c>
       <c r="F40">
-        <v>4.205119244774655</v>
+        <v>7.099035700923632</v>
       </c>
       <c r="G40">
-        <v>46.5154955834351</v>
+        <v>35.78727382288587</v>
       </c>
       <c r="H40">
-        <v>42.31037633866045</v>
+        <v>28.68823812196224</v>
       </c>
       <c r="I40">
-        <v>54.92573407298441</v>
+        <v>49.98534522473313</v>
       </c>
       <c r="J40">
-        <v>59.13085331775906</v>
+        <v>57.08438092565677</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1728,31 +1728,31 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C41">
         <v>4</v>
       </c>
       <c r="D41">
-        <v>76440</v>
+        <v>27214</v>
       </c>
       <c r="E41">
-        <v>48.78197278911553</v>
+        <v>42.06884936674755</v>
       </c>
       <c r="F41">
-        <v>4.504189771637932</v>
+        <v>7.243835736959333</v>
       </c>
       <c r="G41">
-        <v>44.2777830174776</v>
+        <v>34.82501362978822</v>
       </c>
       <c r="H41">
-        <v>39.77359324583966</v>
+        <v>27.58117789282888</v>
       </c>
       <c r="I41">
-        <v>53.28616256075346</v>
+        <v>49.31268510370688</v>
       </c>
       <c r="J41">
-        <v>57.79035233239139</v>
+        <v>56.55652084066622</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1760,31 +1760,31 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D42">
-        <v>364</v>
+        <v>105820</v>
       </c>
       <c r="E42">
-        <v>45.92857142857143</v>
+        <v>41.78153153153114</v>
       </c>
       <c r="F42">
-        <v>3.302192557922638</v>
+        <v>7.765914528215042</v>
       </c>
       <c r="G42">
-        <v>42.62637887064879</v>
+        <v>34.0156170033161</v>
       </c>
       <c r="H42">
-        <v>39.32418631272616</v>
+        <v>26.24970247510106</v>
       </c>
       <c r="I42">
-        <v>49.23076398649407</v>
+        <v>49.54744605974619</v>
       </c>
       <c r="J42">
-        <v>52.53295654441671</v>
+        <v>57.31336058796123</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1792,31 +1792,31 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D43">
-        <v>2366</v>
+        <v>354772</v>
       </c>
       <c r="E43">
-        <v>47.31868131868139</v>
+        <v>41.58318863946451</v>
       </c>
       <c r="F43">
-        <v>3.654883374734166</v>
+        <v>7.788109241861181</v>
       </c>
       <c r="G43">
-        <v>43.66379794394722</v>
+        <v>33.79507939760333</v>
       </c>
       <c r="H43">
-        <v>40.00891456921306</v>
+        <v>26.00697015574215</v>
       </c>
       <c r="I43">
-        <v>50.97356469341556</v>
+        <v>49.37129788132569</v>
       </c>
       <c r="J43">
-        <v>54.62844806814972</v>
+        <v>57.15940712318687</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1824,31 +1824,31 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D44">
-        <v>14378</v>
+        <v>220</v>
       </c>
       <c r="E44">
-        <v>47.66094032549709</v>
+        <v>64.58333333333333</v>
       </c>
       <c r="F44">
-        <v>4.236780057270666</v>
+        <v>5.131185348566761</v>
       </c>
       <c r="G44">
-        <v>43.42416026822643</v>
+        <v>59.45214798476657</v>
       </c>
       <c r="H44">
-        <v>39.18738021095577</v>
+        <v>54.32096263619981</v>
       </c>
       <c r="I44">
-        <v>51.89772038276776</v>
+        <v>69.71451868190009</v>
       </c>
       <c r="J44">
-        <v>56.13450044003842</v>
+        <v>74.84570403046685</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1856,31 +1856,31 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45">
-        <v>76440</v>
+        <v>1210</v>
       </c>
       <c r="E45">
-        <v>48.92551020408168</v>
+        <v>62.12121212121205</v>
       </c>
       <c r="F45">
-        <v>4.720318431609755</v>
+        <v>6.133665175249102</v>
       </c>
       <c r="G45">
-        <v>44.20519177247193</v>
+        <v>55.98754694596295</v>
       </c>
       <c r="H45">
-        <v>39.48487334086217</v>
+        <v>49.85388177071385</v>
       </c>
       <c r="I45">
-        <v>53.64582863569144</v>
+        <v>68.25487729646116</v>
       </c>
       <c r="J45">
-        <v>58.36614706730119</v>
+        <v>74.38854247171025</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1888,31 +1888,31 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D46">
-        <v>286</v>
+        <v>6160</v>
       </c>
       <c r="E46">
-        <v>42.53846153846155</v>
+        <v>61.69702380952384</v>
       </c>
       <c r="F46">
-        <v>3.737189544966478</v>
+        <v>6.694113606344837</v>
       </c>
       <c r="G46">
-        <v>38.80127199349507</v>
+        <v>55.00291020317901</v>
       </c>
       <c r="H46">
-        <v>35.06408244852859</v>
+        <v>48.30879659683417</v>
       </c>
       <c r="I46">
-        <v>46.27565108342802</v>
+        <v>68.39113741586868</v>
       </c>
       <c r="J46">
-        <v>50.0128406283945</v>
+        <v>75.08525102221351</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -1920,31 +1920,31 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47">
-        <v>1716</v>
+        <v>27214</v>
       </c>
       <c r="E47">
-        <v>40.66025641025642</v>
+        <v>62.13015359741313</v>
       </c>
       <c r="F47">
-        <v>4.198592676004279</v>
+        <v>6.945819253260119</v>
       </c>
       <c r="G47">
-        <v>36.46166373425213</v>
+        <v>55.18433434415301</v>
       </c>
       <c r="H47">
-        <v>32.26307105824786</v>
+        <v>48.23851509089289</v>
       </c>
       <c r="I47">
-        <v>44.8588490862607</v>
+        <v>69.07597285067325</v>
       </c>
       <c r="J47">
-        <v>49.05744176226497</v>
+        <v>76.02179210393336</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1952,31 +1952,31 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C48">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48">
-        <v>9581</v>
+        <v>105820</v>
       </c>
       <c r="E48">
-        <v>41.51572904707237</v>
+        <v>62.31434511434528</v>
       </c>
       <c r="F48">
-        <v>5.145198418671137</v>
+        <v>7.102039230745189</v>
       </c>
       <c r="G48">
-        <v>36.37053062840123</v>
+        <v>55.21230588360009</v>
       </c>
       <c r="H48">
-        <v>31.22533220973009</v>
+        <v>48.1102666528549</v>
       </c>
       <c r="I48">
-        <v>46.66092746574351</v>
+        <v>69.41638434509046</v>
       </c>
       <c r="J48">
-        <v>51.80612588441464</v>
+        <v>76.51842357583566</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -1984,31 +1984,31 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C49">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D49">
-        <v>46618</v>
+        <v>354772</v>
       </c>
       <c r="E49">
-        <v>41.02305332704104</v>
+        <v>62.44787920128951</v>
       </c>
       <c r="F49">
-        <v>5.370767536404617</v>
+        <v>7.499282153110954</v>
       </c>
       <c r="G49">
-        <v>35.65228579063643</v>
+        <v>54.94859704817856</v>
       </c>
       <c r="H49">
-        <v>30.28151825423181</v>
+        <v>47.4493148950676</v>
       </c>
       <c r="I49">
-        <v>46.39382086344565</v>
+        <v>69.94716135440046</v>
       </c>
       <c r="J49">
-        <v>51.76458839985028</v>
+        <v>77.44644350751142</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2016,31 +2016,31 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50">
-        <v>455</v>
+        <v>220</v>
       </c>
       <c r="E50">
-        <v>46.53333333333331</v>
+        <v>52.4166666666667</v>
       </c>
       <c r="F50">
-        <v>3.477831690120536</v>
+        <v>4.677015234470264</v>
       </c>
       <c r="G50">
-        <v>43.05550164321277</v>
+        <v>47.73965143219644</v>
       </c>
       <c r="H50">
-        <v>39.57766995309224</v>
+        <v>43.06263619772617</v>
       </c>
       <c r="I50">
-        <v>50.01116502345385</v>
+        <v>57.09368190113696</v>
       </c>
       <c r="J50">
-        <v>53.48899671357438</v>
+        <v>61.77069713560723</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2048,31 +2048,31 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C51">
         <v>2</v>
       </c>
       <c r="D51">
-        <v>3185</v>
+        <v>1210</v>
       </c>
       <c r="E51">
-        <v>45.53095238095239</v>
+        <v>53.78787878787877</v>
       </c>
       <c r="F51">
-        <v>4.099227475871417</v>
+        <v>5.758334019948165</v>
       </c>
       <c r="G51">
-        <v>41.43172490508098</v>
+        <v>48.02954476793061</v>
       </c>
       <c r="H51">
-        <v>37.33249742920956</v>
+        <v>42.27121074798244</v>
       </c>
       <c r="I51">
-        <v>49.63017985682381</v>
+        <v>59.54621280782694</v>
       </c>
       <c r="J51">
-        <v>53.72940733269522</v>
+        <v>65.30454682777511</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2080,31 +2080,31 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C52">
         <v>3</v>
       </c>
       <c r="D52">
-        <v>20930</v>
+        <v>6160</v>
       </c>
       <c r="E52">
-        <v>43.66992753623186</v>
+        <v>56.16011904761869</v>
       </c>
       <c r="F52">
-        <v>4.380765998873653</v>
+        <v>5.970049702151853</v>
       </c>
       <c r="G52">
-        <v>39.2891615373582</v>
+        <v>50.19006934546683</v>
       </c>
       <c r="H52">
-        <v>34.90839553848456</v>
+        <v>44.22001964331498</v>
       </c>
       <c r="I52">
-        <v>48.05069353510552</v>
+        <v>62.13016874977054</v>
       </c>
       <c r="J52">
-        <v>52.43145953397917</v>
+        <v>68.10021845192239</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2112,31 +2112,31 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C53">
         <v>4</v>
       </c>
       <c r="D53">
-        <v>120757</v>
+        <v>27214</v>
       </c>
       <c r="E53">
-        <v>42.963576990706</v>
+        <v>57.9420641336567</v>
       </c>
       <c r="F53">
-        <v>4.652650189212832</v>
+        <v>6.18521009925209</v>
       </c>
       <c r="G53">
-        <v>38.31092680149317</v>
+        <v>51.75685403440461</v>
       </c>
       <c r="H53">
-        <v>33.65827661228034</v>
+        <v>45.57164393515252</v>
       </c>
       <c r="I53">
-        <v>47.61622717991884</v>
+        <v>64.12727423290879</v>
       </c>
       <c r="J53">
-        <v>52.26887736913167</v>
+        <v>70.31248433216088</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2144,31 +2144,31 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D54">
-        <v>286</v>
+        <v>105820</v>
       </c>
       <c r="E54">
-        <v>38.46153846153846</v>
+        <v>57.40554400554419</v>
       </c>
       <c r="F54">
-        <v>2.312571988885682</v>
+        <v>6.82026237149332</v>
       </c>
       <c r="G54">
-        <v>36.14896647265278</v>
+        <v>50.58528163405087</v>
       </c>
       <c r="H54">
-        <v>33.83639448376709</v>
+        <v>43.76501926255755</v>
       </c>
       <c r="I54">
-        <v>40.77411045042414</v>
+        <v>64.22580637703751</v>
       </c>
       <c r="J54">
-        <v>43.08668243930983</v>
+        <v>71.04606874853083</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2176,31 +2176,31 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D55">
-        <v>1716</v>
+        <v>354772</v>
       </c>
       <c r="E55">
-        <v>40.00641025641022</v>
+        <v>56.15673446607975</v>
       </c>
       <c r="F55">
-        <v>2.744549805858759</v>
+        <v>6.952533981763179</v>
       </c>
       <c r="G55">
-        <v>37.26186045055146</v>
+        <v>49.20420048431657</v>
       </c>
       <c r="H55">
-        <v>34.5173106446927</v>
+        <v>42.25166650255339</v>
       </c>
       <c r="I55">
-        <v>42.75096006226898</v>
+        <v>63.10926844784293</v>
       </c>
       <c r="J55">
-        <v>45.49550986812774</v>
+        <v>70.0618024296061</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2208,31 +2208,31 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D56">
-        <v>9581</v>
+        <v>364</v>
       </c>
       <c r="E56">
-        <v>41.23053960964413</v>
+        <v>50.35714285714285</v>
       </c>
       <c r="F56">
-        <v>3.066447900338833</v>
+        <v>3.390270758545677</v>
       </c>
       <c r="G56">
-        <v>38.1640917093053</v>
+        <v>46.96687209859718</v>
       </c>
       <c r="H56">
-        <v>35.09764380896646</v>
+        <v>43.5766013400515</v>
       </c>
       <c r="I56">
-        <v>44.29698750998296</v>
+        <v>53.74741361568853</v>
       </c>
       <c r="J56">
-        <v>47.36343541032179</v>
+        <v>57.1376843742342</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2240,31 +2240,927 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <v>2366</v>
+      </c>
+      <c r="E57">
+        <v>51.40659340659342</v>
+      </c>
+      <c r="F57">
+        <v>3.764770021435135</v>
+      </c>
+      <c r="G57">
+        <v>47.64182338515828</v>
+      </c>
+      <c r="H57">
+        <v>43.87705336372315</v>
+      </c>
+      <c r="I57">
+        <v>55.17136342802855</v>
+      </c>
+      <c r="J57">
+        <v>58.93613344946368</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58">
+        <v>14378</v>
+      </c>
+      <c r="E58">
+        <v>50.72061482820975</v>
+      </c>
+      <c r="F58">
+        <v>4.205119244774655</v>
+      </c>
+      <c r="G58">
+        <v>46.5154955834351</v>
+      </c>
+      <c r="H58">
+        <v>42.31037633866045</v>
+      </c>
+      <c r="I58">
+        <v>54.92573407298441</v>
+      </c>
+      <c r="J58">
+        <v>59.13085331775906</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59">
+        <v>4</v>
+      </c>
+      <c r="D59">
+        <v>76440</v>
+      </c>
+      <c r="E59">
+        <v>48.78197278911553</v>
+      </c>
+      <c r="F59">
+        <v>4.504189771637932</v>
+      </c>
+      <c r="G59">
+        <v>44.2777830174776</v>
+      </c>
+      <c r="H59">
+        <v>39.77359324583966</v>
+      </c>
+      <c r="I59">
+        <v>53.28616256075346</v>
+      </c>
+      <c r="J59">
+        <v>57.79035233239139</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60">
+        <v>5</v>
+      </c>
+      <c r="D60">
+        <v>360152</v>
+      </c>
+      <c r="E60">
+        <v>48.60875685821532</v>
+      </c>
+      <c r="F60">
+        <v>4.834820211364923</v>
+      </c>
+      <c r="G60">
+        <v>43.77393664685039</v>
+      </c>
+      <c r="H60">
+        <v>38.93911643548547</v>
+      </c>
+      <c r="I60">
+        <v>53.44357706958024</v>
+      </c>
+      <c r="J60">
+        <v>58.27839728094516</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61">
+        <v>6</v>
+      </c>
+      <c r="D61">
+        <v>1472120</v>
+      </c>
+      <c r="E61">
+        <v>48.67409042741073</v>
+      </c>
+      <c r="F61">
+        <v>5.615226245029375</v>
+      </c>
+      <c r="G61">
+        <v>43.05886418238135</v>
+      </c>
+      <c r="H61">
+        <v>37.44363793735197</v>
+      </c>
+      <c r="I61">
+        <v>54.2893166724401</v>
+      </c>
+      <c r="J61">
+        <v>59.90454291746948</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>364</v>
+      </c>
+      <c r="E62">
+        <v>45.92857142857143</v>
+      </c>
+      <c r="F62">
+        <v>3.302192557922638</v>
+      </c>
+      <c r="G62">
+        <v>42.62637887064879</v>
+      </c>
+      <c r="H62">
+        <v>39.32418631272616</v>
+      </c>
+      <c r="I62">
+        <v>49.23076398649407</v>
+      </c>
+      <c r="J62">
+        <v>52.53295654441671</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="D63">
+        <v>2366</v>
+      </c>
+      <c r="E63">
+        <v>47.31868131868139</v>
+      </c>
+      <c r="F63">
+        <v>3.654883374734166</v>
+      </c>
+      <c r="G63">
+        <v>43.66379794394722</v>
+      </c>
+      <c r="H63">
+        <v>40.00891456921306</v>
+      </c>
+      <c r="I63">
+        <v>50.97356469341556</v>
+      </c>
+      <c r="J63">
+        <v>54.62844806814972</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>14378</v>
+      </c>
+      <c r="E64">
+        <v>47.66094032549709</v>
+      </c>
+      <c r="F64">
+        <v>4.236780057270666</v>
+      </c>
+      <c r="G64">
+        <v>43.42416026822643</v>
+      </c>
+      <c r="H64">
+        <v>39.18738021095577</v>
+      </c>
+      <c r="I64">
+        <v>51.89772038276776</v>
+      </c>
+      <c r="J64">
+        <v>56.13450044003842</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65">
+        <v>4</v>
+      </c>
+      <c r="D65">
+        <v>76440</v>
+      </c>
+      <c r="E65">
+        <v>48.92551020408168</v>
+      </c>
+      <c r="F65">
+        <v>4.720318431609755</v>
+      </c>
+      <c r="G65">
+        <v>44.20519177247193</v>
+      </c>
+      <c r="H65">
+        <v>39.48487334086217</v>
+      </c>
+      <c r="I65">
+        <v>53.64582863569144</v>
+      </c>
+      <c r="J65">
+        <v>58.36614706730119</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66">
+        <v>5</v>
+      </c>
+      <c r="D66">
+        <v>360152</v>
+      </c>
+      <c r="E66">
+        <v>50.63373520069113</v>
+      </c>
+      <c r="F66">
+        <v>4.874730107841847</v>
+      </c>
+      <c r="G66">
+        <v>45.75900509284929</v>
+      </c>
+      <c r="H66">
+        <v>40.88427498500744</v>
+      </c>
+      <c r="I66">
+        <v>55.50846530853298</v>
+      </c>
+      <c r="J66">
+        <v>60.38319541637483</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67">
+        <v>6</v>
+      </c>
+      <c r="D67">
+        <v>1472120</v>
+      </c>
+      <c r="E67">
+        <v>51.31782938890694</v>
+      </c>
+      <c r="F67">
+        <v>5.043459031467926</v>
+      </c>
+      <c r="G67">
+        <v>46.27437035743901</v>
+      </c>
+      <c r="H67">
+        <v>41.23091132597109</v>
+      </c>
+      <c r="I67">
+        <v>56.36128842037486</v>
+      </c>
+      <c r="J67">
+        <v>61.40474745184279</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>20</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>286</v>
+      </c>
+      <c r="E68">
+        <v>42.53846153846155</v>
+      </c>
+      <c r="F68">
+        <v>3.737189544966478</v>
+      </c>
+      <c r="G68">
+        <v>38.80127199349507</v>
+      </c>
+      <c r="H68">
+        <v>35.06408244852859</v>
+      </c>
+      <c r="I68">
+        <v>46.27565108342802</v>
+      </c>
+      <c r="J68">
+        <v>50.0128406283945</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>20</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <v>1716</v>
+      </c>
+      <c r="E69">
+        <v>40.66025641025642</v>
+      </c>
+      <c r="F69">
+        <v>4.198592676004279</v>
+      </c>
+      <c r="G69">
+        <v>36.46166373425213</v>
+      </c>
+      <c r="H69">
+        <v>32.26307105824786</v>
+      </c>
+      <c r="I69">
+        <v>44.8588490862607</v>
+      </c>
+      <c r="J69">
+        <v>49.05744176226497</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>20</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="D70">
+        <v>9581</v>
+      </c>
+      <c r="E70">
+        <v>41.51572904707237</v>
+      </c>
+      <c r="F70">
+        <v>5.145198418671137</v>
+      </c>
+      <c r="G70">
+        <v>36.37053062840123</v>
+      </c>
+      <c r="H70">
+        <v>31.22533220973009</v>
+      </c>
+      <c r="I70">
+        <v>46.66092746574351</v>
+      </c>
+      <c r="J70">
+        <v>51.80612588441464</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>20</v>
+      </c>
+      <c r="C71">
+        <v>4</v>
+      </c>
+      <c r="D71">
+        <v>46618</v>
+      </c>
+      <c r="E71">
+        <v>41.02305332704104</v>
+      </c>
+      <c r="F71">
+        <v>5.370767536404617</v>
+      </c>
+      <c r="G71">
+        <v>35.65228579063643</v>
+      </c>
+      <c r="H71">
+        <v>30.28151825423181</v>
+      </c>
+      <c r="I71">
+        <v>46.39382086344565</v>
+      </c>
+      <c r="J71">
+        <v>51.76458839985028</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>20</v>
+      </c>
+      <c r="C72">
+        <v>5</v>
+      </c>
+      <c r="D72">
+        <v>200343</v>
+      </c>
+      <c r="E72">
+        <v>42.27944325481792</v>
+      </c>
+      <c r="F72">
+        <v>5.984066670192131</v>
+      </c>
+      <c r="G72">
+        <v>36.29537658462579</v>
+      </c>
+      <c r="H72">
+        <v>30.31130991443366</v>
+      </c>
+      <c r="I72">
+        <v>48.26350992501005</v>
+      </c>
+      <c r="J72">
+        <v>54.24757659520218</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>20</v>
+      </c>
+      <c r="C73">
+        <v>6</v>
+      </c>
+      <c r="D73">
+        <v>744458</v>
+      </c>
+      <c r="E73">
+        <v>42.29416944945191</v>
+      </c>
+      <c r="F73">
+        <v>6.048542938109028</v>
+      </c>
+      <c r="G73">
+        <v>36.24562651134288</v>
+      </c>
+      <c r="H73">
+        <v>30.19708357323386</v>
+      </c>
+      <c r="I73">
+        <v>48.34271238756094</v>
+      </c>
+      <c r="J73">
+        <v>54.39125532566997</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>21</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>455</v>
+      </c>
+      <c r="E74">
+        <v>46.53333333333331</v>
+      </c>
+      <c r="F74">
+        <v>3.477831690120536</v>
+      </c>
+      <c r="G74">
+        <v>43.05550164321277</v>
+      </c>
+      <c r="H74">
+        <v>39.57766995309224</v>
+      </c>
+      <c r="I74">
+        <v>50.01116502345385</v>
+      </c>
+      <c r="J74">
+        <v>53.48899671357438</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>21</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="D75">
+        <v>3185</v>
+      </c>
+      <c r="E75">
+        <v>45.53095238095239</v>
+      </c>
+      <c r="F75">
+        <v>4.099227475871417</v>
+      </c>
+      <c r="G75">
+        <v>41.43172490508098</v>
+      </c>
+      <c r="H75">
+        <v>37.33249742920956</v>
+      </c>
+      <c r="I75">
+        <v>49.63017985682381</v>
+      </c>
+      <c r="J75">
+        <v>53.72940733269522</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>21</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76">
+        <v>20930</v>
+      </c>
+      <c r="E76">
+        <v>43.66992753623186</v>
+      </c>
+      <c r="F76">
+        <v>4.380765998873653</v>
+      </c>
+      <c r="G76">
+        <v>39.2891615373582</v>
+      </c>
+      <c r="H76">
+        <v>34.90839553848456</v>
+      </c>
+      <c r="I76">
+        <v>48.05069353510552</v>
+      </c>
+      <c r="J76">
+        <v>52.43145953397917</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>21</v>
+      </c>
+      <c r="C77">
+        <v>4</v>
+      </c>
+      <c r="D77">
+        <v>120757</v>
+      </c>
+      <c r="E77">
+        <v>42.963576990706</v>
+      </c>
+      <c r="F77">
+        <v>4.652650189212832</v>
+      </c>
+      <c r="G77">
+        <v>38.31092680149317</v>
+      </c>
+      <c r="H77">
+        <v>33.65827661228034</v>
+      </c>
+      <c r="I77">
+        <v>47.61622717991884</v>
+      </c>
+      <c r="J77">
+        <v>52.26887736913167</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78">
+        <v>5</v>
+      </c>
+      <c r="D78">
+        <v>619411</v>
+      </c>
+      <c r="E78">
+        <v>44.05909081369186</v>
+      </c>
+      <c r="F78">
+        <v>5.245797068680192</v>
+      </c>
+      <c r="G78">
+        <v>38.81329374501167</v>
+      </c>
+      <c r="H78">
+        <v>33.56749667633147</v>
+      </c>
+      <c r="I78">
+        <v>49.30488788237205</v>
+      </c>
+      <c r="J78">
+        <v>54.55068495105225</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>21</v>
+      </c>
+      <c r="C79">
+        <v>6</v>
+      </c>
+      <c r="D79">
+        <v>2765997</v>
+      </c>
+      <c r="E79">
+        <v>44.77892142809026</v>
+      </c>
+      <c r="F79">
+        <v>5.685782719556149</v>
+      </c>
+      <c r="G79">
+        <v>39.09313870853411</v>
+      </c>
+      <c r="H79">
+        <v>33.40735598897797</v>
+      </c>
+      <c r="I79">
+        <v>50.46470414764642</v>
+      </c>
+      <c r="J79">
+        <v>56.15048686720256</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
         <v>22</v>
       </c>
-      <c r="C57">
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>286</v>
+      </c>
+      <c r="E80">
+        <v>38.46153846153846</v>
+      </c>
+      <c r="F80">
+        <v>2.312571988885682</v>
+      </c>
+      <c r="G80">
+        <v>36.14896647265278</v>
+      </c>
+      <c r="H80">
+        <v>33.83639448376709</v>
+      </c>
+      <c r="I80">
+        <v>40.77411045042414</v>
+      </c>
+      <c r="J80">
+        <v>43.08668243930983</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>22</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+      <c r="D81">
+        <v>1716</v>
+      </c>
+      <c r="E81">
+        <v>40.00641025641022</v>
+      </c>
+      <c r="F81">
+        <v>2.744549805858759</v>
+      </c>
+      <c r="G81">
+        <v>37.26186045055146</v>
+      </c>
+      <c r="H81">
+        <v>34.5173106446927</v>
+      </c>
+      <c r="I81">
+        <v>42.75096006226898</v>
+      </c>
+      <c r="J81">
+        <v>45.49550986812774</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>22</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+      <c r="D82">
+        <v>9581</v>
+      </c>
+      <c r="E82">
+        <v>41.23053960964413</v>
+      </c>
+      <c r="F82">
+        <v>3.066447900338833</v>
+      </c>
+      <c r="G82">
+        <v>38.1640917093053</v>
+      </c>
+      <c r="H82">
+        <v>35.09764380896646</v>
+      </c>
+      <c r="I82">
+        <v>44.29698750998296</v>
+      </c>
+      <c r="J82">
+        <v>47.36343541032179</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83">
         <v>4</v>
       </c>
-      <c r="D57">
+      <c r="D83">
         <v>46618</v>
       </c>
-      <c r="E57">
+      <c r="E83">
         <v>41.45608777725337</v>
       </c>
-      <c r="F57">
+      <c r="F83">
         <v>3.695994151402893</v>
       </c>
-      <c r="G57">
+      <c r="G83">
         <v>37.76009362585048</v>
       </c>
-      <c r="H57">
+      <c r="H83">
         <v>34.06409947444759</v>
       </c>
-      <c r="I57">
+      <c r="I83">
         <v>45.15208192865627</v>
       </c>
-      <c r="J57">
+      <c r="J83">
         <v>48.84807608005916</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84">
+        <v>5</v>
+      </c>
+      <c r="D84">
+        <v>200343</v>
+      </c>
+      <c r="E84">
+        <v>41.46616702355448</v>
+      </c>
+      <c r="F84">
+        <v>3.723719438780323</v>
+      </c>
+      <c r="G84">
+        <v>37.74244758477416</v>
+      </c>
+      <c r="H84">
+        <v>34.01872814599383</v>
+      </c>
+      <c r="I84">
+        <v>45.1898864623348</v>
+      </c>
+      <c r="J84">
+        <v>48.91360590111513</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>22</v>
+      </c>
+      <c r="C85">
+        <v>6</v>
+      </c>
+      <c r="D85">
+        <v>744458</v>
+      </c>
+      <c r="E85">
+        <v>42.65732882177367</v>
+      </c>
+      <c r="F85">
+        <v>4.523064996403139</v>
+      </c>
+      <c r="G85">
+        <v>38.13426382537054</v>
+      </c>
+      <c r="H85">
+        <v>33.6111988289674</v>
+      </c>
+      <c r="I85">
+        <v>47.18039381817681</v>
+      </c>
+      <c r="J85">
+        <v>51.70345881457995</v>
       </c>
     </row>
   </sheetData>

--- a/HandAvg_byLevel_output.xlsx
+++ b/HandAvg_byLevel_output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
   <si>
     <t>Class</t>
   </si>
@@ -410,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -546,31 +546,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>286</v>
+        <v>27214</v>
       </c>
       <c r="E5">
-        <v>42.53846153846155</v>
+        <v>57.9420641336567</v>
       </c>
       <c r="F5">
-        <v>3.737189544966478</v>
+        <v>6.18521009925209</v>
       </c>
       <c r="G5">
-        <v>38.80127199349507</v>
+        <v>51.75685403440461</v>
       </c>
       <c r="H5">
-        <v>35.06408244852859</v>
+        <v>45.57164393515252</v>
       </c>
       <c r="I5">
-        <v>46.27565108342802</v>
+        <v>64.12727423290879</v>
       </c>
       <c r="J5">
-        <v>50.0128406283945</v>
+        <v>70.31248433216088</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -581,28 +581,28 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>1716</v>
+        <v>286</v>
       </c>
       <c r="E6">
-        <v>40.66025641025642</v>
+        <v>42.53846153846155</v>
       </c>
       <c r="F6">
-        <v>4.198592676004279</v>
+        <v>3.737189544966478</v>
       </c>
       <c r="G6">
-        <v>36.46166373425213</v>
+        <v>38.80127199349507</v>
       </c>
       <c r="H6">
-        <v>32.26307105824786</v>
+        <v>35.06408244852859</v>
       </c>
       <c r="I6">
-        <v>44.8588490862607</v>
+        <v>46.27565108342802</v>
       </c>
       <c r="J6">
-        <v>49.05744176226497</v>
+        <v>50.0128406283945</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -613,28 +613,28 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>9581</v>
+        <v>1716</v>
       </c>
       <c r="E7">
-        <v>41.51572904707237</v>
+        <v>40.66025641025642</v>
       </c>
       <c r="F7">
-        <v>5.145198418671137</v>
+        <v>4.198592676004279</v>
       </c>
       <c r="G7">
-        <v>36.37053062840123</v>
+        <v>36.46166373425213</v>
       </c>
       <c r="H7">
-        <v>31.22533220973009</v>
+        <v>32.26307105824786</v>
       </c>
       <c r="I7">
-        <v>46.66092746574351</v>
+        <v>44.8588490862607</v>
       </c>
       <c r="J7">
-        <v>51.80612588441464</v>
+        <v>49.05744176226497</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -642,31 +642,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>455</v>
+        <v>9581</v>
       </c>
       <c r="E8">
-        <v>46.53333333333331</v>
+        <v>41.51572904707237</v>
       </c>
       <c r="F8">
-        <v>3.477831690120536</v>
+        <v>5.145198418671137</v>
       </c>
       <c r="G8">
-        <v>43.05550164321277</v>
+        <v>36.37053062840123</v>
       </c>
       <c r="H8">
-        <v>39.57766995309224</v>
+        <v>31.22533220973009</v>
       </c>
       <c r="I8">
-        <v>50.01116502345385</v>
+        <v>46.66092746574351</v>
       </c>
       <c r="J8">
-        <v>53.48899671357438</v>
+        <v>51.80612588441464</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -674,31 +674,31 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>3185</v>
+        <v>46618</v>
       </c>
       <c r="E9">
-        <v>45.53095238095239</v>
+        <v>41.02305332704104</v>
       </c>
       <c r="F9">
-        <v>4.099227475871417</v>
+        <v>5.370767536404617</v>
       </c>
       <c r="G9">
-        <v>41.43172490508098</v>
+        <v>35.65228579063643</v>
       </c>
       <c r="H9">
-        <v>37.33249742920956</v>
+        <v>30.28151825423181</v>
       </c>
       <c r="I9">
-        <v>49.63017985682381</v>
+        <v>46.39382086344565</v>
       </c>
       <c r="J9">
-        <v>53.72940733269522</v>
+        <v>51.76458839985028</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -709,28 +709,28 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>20930</v>
+        <v>455</v>
       </c>
       <c r="E10">
-        <v>43.66992753623186</v>
+        <v>46.53333333333331</v>
       </c>
       <c r="F10">
-        <v>4.380765998873653</v>
+        <v>3.477831690120536</v>
       </c>
       <c r="G10">
-        <v>39.2891615373582</v>
+        <v>43.05550164321277</v>
       </c>
       <c r="H10">
-        <v>34.90839553848456</v>
+        <v>39.57766995309224</v>
       </c>
       <c r="I10">
-        <v>48.05069353510552</v>
+        <v>50.01116502345385</v>
       </c>
       <c r="J10">
-        <v>52.43145953397917</v>
+        <v>53.48899671357438</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -738,31 +738,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>286</v>
+        <v>3185</v>
       </c>
       <c r="E11">
-        <v>38.46153846153846</v>
+        <v>45.53095238095239</v>
       </c>
       <c r="F11">
-        <v>2.312571988885682</v>
+        <v>4.099227475871417</v>
       </c>
       <c r="G11">
-        <v>36.14896647265278</v>
+        <v>41.43172490508098</v>
       </c>
       <c r="H11">
-        <v>33.83639448376709</v>
+        <v>37.33249742920956</v>
       </c>
       <c r="I11">
-        <v>40.77411045042414</v>
+        <v>49.63017985682381</v>
       </c>
       <c r="J11">
-        <v>43.08668243930983</v>
+        <v>53.72940733269522</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -770,31 +770,31 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>1716</v>
+        <v>20930</v>
       </c>
       <c r="E12">
-        <v>40.00641025641022</v>
+        <v>43.66992753623186</v>
       </c>
       <c r="F12">
-        <v>2.744549805858759</v>
+        <v>4.380765998873653</v>
       </c>
       <c r="G12">
-        <v>37.26186045055146</v>
+        <v>39.2891615373582</v>
       </c>
       <c r="H12">
-        <v>34.5173106446927</v>
+        <v>34.90839553848456</v>
       </c>
       <c r="I12">
-        <v>42.75096006226898</v>
+        <v>48.05069353510552</v>
       </c>
       <c r="J12">
-        <v>45.49550986812774</v>
+        <v>52.43145953397917</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -802,31 +802,159 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>120757</v>
+      </c>
+      <c r="E13">
+        <v>42.963576990706</v>
+      </c>
+      <c r="F13">
+        <v>4.652650189212832</v>
+      </c>
+      <c r="G13">
+        <v>38.31092680149317</v>
+      </c>
+      <c r="H13">
+        <v>33.65827661228034</v>
+      </c>
+      <c r="I13">
+        <v>47.61622717991884</v>
+      </c>
+      <c r="J13">
+        <v>52.26887736913167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="C13">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>286</v>
+      </c>
+      <c r="E14">
+        <v>38.46153846153846</v>
+      </c>
+      <c r="F14">
+        <v>2.312571988885682</v>
+      </c>
+      <c r="G14">
+        <v>36.14896647265278</v>
+      </c>
+      <c r="H14">
+        <v>33.83639448376709</v>
+      </c>
+      <c r="I14">
+        <v>40.77411045042414</v>
+      </c>
+      <c r="J14">
+        <v>43.08668243930983</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>1716</v>
+      </c>
+      <c r="E15">
+        <v>40.00641025641022</v>
+      </c>
+      <c r="F15">
+        <v>2.744549805858759</v>
+      </c>
+      <c r="G15">
+        <v>37.26186045055146</v>
+      </c>
+      <c r="H15">
+        <v>34.5173106446927</v>
+      </c>
+      <c r="I15">
+        <v>42.75096006226898</v>
+      </c>
+      <c r="J15">
+        <v>45.49550986812774</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16">
         <v>3</v>
       </c>
-      <c r="D13">
+      <c r="D16">
         <v>9581</v>
       </c>
-      <c r="E13">
+      <c r="E16">
         <v>41.23053960964413</v>
       </c>
-      <c r="F13">
+      <c r="F16">
         <v>3.066447900338833</v>
       </c>
-      <c r="G13">
+      <c r="G16">
         <v>38.1640917093053</v>
       </c>
-      <c r="H13">
+      <c r="H16">
         <v>35.09764380896646</v>
       </c>
-      <c r="I13">
+      <c r="I16">
         <v>44.29698750998296</v>
       </c>
-      <c r="J13">
+      <c r="J16">
         <v>47.36343541032179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>46618</v>
+      </c>
+      <c r="E17">
+        <v>41.45608777725337</v>
+      </c>
+      <c r="F17">
+        <v>3.695994151402893</v>
+      </c>
+      <c r="G17">
+        <v>37.76009362585048</v>
+      </c>
+      <c r="H17">
+        <v>34.06409947444759</v>
+      </c>
+      <c r="I17">
+        <v>45.15208192865627</v>
+      </c>
+      <c r="J17">
+        <v>48.84807608005916</v>
       </c>
     </row>
   </sheetData>

--- a/HandAvg_byLevel_output.xlsx
+++ b/HandAvg_byLevel_output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
   <si>
     <t>Class</t>
   </si>
@@ -410,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -578,31 +578,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>286</v>
+        <v>105820</v>
       </c>
       <c r="E6">
-        <v>42.53846153846155</v>
+        <v>57.40554400554419</v>
       </c>
       <c r="F6">
-        <v>3.737189544966478</v>
+        <v>6.82026237149332</v>
       </c>
       <c r="G6">
-        <v>38.80127199349507</v>
+        <v>50.58528163405087</v>
       </c>
       <c r="H6">
-        <v>35.06408244852859</v>
+        <v>43.76501926255755</v>
       </c>
       <c r="I6">
-        <v>46.27565108342802</v>
+        <v>64.22580637703751</v>
       </c>
       <c r="J6">
-        <v>50.0128406283945</v>
+        <v>71.04606874853083</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -613,28 +613,28 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>1716</v>
+        <v>286</v>
       </c>
       <c r="E7">
-        <v>40.66025641025642</v>
+        <v>42.53846153846155</v>
       </c>
       <c r="F7">
-        <v>4.198592676004279</v>
+        <v>3.737189544966478</v>
       </c>
       <c r="G7">
-        <v>36.46166373425213</v>
+        <v>38.80127199349507</v>
       </c>
       <c r="H7">
-        <v>32.26307105824786</v>
+        <v>35.06408244852859</v>
       </c>
       <c r="I7">
-        <v>44.8588490862607</v>
+        <v>46.27565108342802</v>
       </c>
       <c r="J7">
-        <v>49.05744176226497</v>
+        <v>50.0128406283945</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -645,28 +645,28 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>9581</v>
+        <v>1716</v>
       </c>
       <c r="E8">
-        <v>41.51572904707237</v>
+        <v>40.66025641025642</v>
       </c>
       <c r="F8">
-        <v>5.145198418671137</v>
+        <v>4.198592676004279</v>
       </c>
       <c r="G8">
-        <v>36.37053062840123</v>
+        <v>36.46166373425213</v>
       </c>
       <c r="H8">
-        <v>31.22533220973009</v>
+        <v>32.26307105824786</v>
       </c>
       <c r="I8">
-        <v>46.66092746574351</v>
+        <v>44.8588490862607</v>
       </c>
       <c r="J8">
-        <v>51.80612588441464</v>
+        <v>49.05744176226497</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -677,28 +677,28 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>46618</v>
+        <v>9581</v>
       </c>
       <c r="E9">
-        <v>41.02305332704104</v>
+        <v>41.51572904707237</v>
       </c>
       <c r="F9">
-        <v>5.370767536404617</v>
+        <v>5.145198418671137</v>
       </c>
       <c r="G9">
-        <v>35.65228579063643</v>
+        <v>36.37053062840123</v>
       </c>
       <c r="H9">
-        <v>30.28151825423181</v>
+        <v>31.22533220973009</v>
       </c>
       <c r="I9">
-        <v>46.39382086344565</v>
+        <v>46.66092746574351</v>
       </c>
       <c r="J9">
-        <v>51.76458839985028</v>
+        <v>51.80612588441464</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -706,31 +706,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>455</v>
+        <v>46618</v>
       </c>
       <c r="E10">
-        <v>46.53333333333331</v>
+        <v>41.02305332704104</v>
       </c>
       <c r="F10">
-        <v>3.477831690120536</v>
+        <v>5.370767536404617</v>
       </c>
       <c r="G10">
-        <v>43.05550164321277</v>
+        <v>35.65228579063643</v>
       </c>
       <c r="H10">
-        <v>39.57766995309224</v>
+        <v>30.28151825423181</v>
       </c>
       <c r="I10">
-        <v>50.01116502345385</v>
+        <v>46.39382086344565</v>
       </c>
       <c r="J10">
-        <v>53.48899671357438</v>
+        <v>51.76458839985028</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -738,31 +738,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>3185</v>
+        <v>200343</v>
       </c>
       <c r="E11">
-        <v>45.53095238095239</v>
+        <v>42.27944325481792</v>
       </c>
       <c r="F11">
-        <v>4.099227475871417</v>
+        <v>5.984066670192131</v>
       </c>
       <c r="G11">
-        <v>41.43172490508098</v>
+        <v>36.29537658462579</v>
       </c>
       <c r="H11">
-        <v>37.33249742920956</v>
+        <v>30.31130991443366</v>
       </c>
       <c r="I11">
-        <v>49.63017985682381</v>
+        <v>48.26350992501005</v>
       </c>
       <c r="J11">
-        <v>53.72940733269522</v>
+        <v>54.24757659520218</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -773,28 +773,28 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>20930</v>
+        <v>455</v>
       </c>
       <c r="E12">
-        <v>43.66992753623186</v>
+        <v>46.53333333333331</v>
       </c>
       <c r="F12">
-        <v>4.380765998873653</v>
+        <v>3.477831690120536</v>
       </c>
       <c r="G12">
-        <v>39.2891615373582</v>
+        <v>43.05550164321277</v>
       </c>
       <c r="H12">
-        <v>34.90839553848456</v>
+        <v>39.57766995309224</v>
       </c>
       <c r="I12">
-        <v>48.05069353510552</v>
+        <v>50.01116502345385</v>
       </c>
       <c r="J12">
-        <v>52.43145953397917</v>
+        <v>53.48899671357438</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -805,28 +805,28 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>120757</v>
+        <v>3185</v>
       </c>
       <c r="E13">
-        <v>42.963576990706</v>
+        <v>45.53095238095239</v>
       </c>
       <c r="F13">
-        <v>4.652650189212832</v>
+        <v>4.099227475871417</v>
       </c>
       <c r="G13">
-        <v>38.31092680149317</v>
+        <v>41.43172490508098</v>
       </c>
       <c r="H13">
-        <v>33.65827661228034</v>
+        <v>37.33249742920956</v>
       </c>
       <c r="I13">
-        <v>47.61622717991884</v>
+        <v>49.63017985682381</v>
       </c>
       <c r="J13">
-        <v>52.26887736913167</v>
+        <v>53.72940733269522</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -834,31 +834,31 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14">
-        <v>286</v>
+        <v>20930</v>
       </c>
       <c r="E14">
-        <v>38.46153846153846</v>
+        <v>43.66992753623186</v>
       </c>
       <c r="F14">
-        <v>2.312571988885682</v>
+        <v>4.380765998873653</v>
       </c>
       <c r="G14">
-        <v>36.14896647265278</v>
+        <v>39.2891615373582</v>
       </c>
       <c r="H14">
-        <v>33.83639448376709</v>
+        <v>34.90839553848456</v>
       </c>
       <c r="I14">
-        <v>40.77411045042414</v>
+        <v>48.05069353510552</v>
       </c>
       <c r="J14">
-        <v>43.08668243930983</v>
+        <v>52.43145953397917</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -866,31 +866,31 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15">
-        <v>1716</v>
+        <v>120757</v>
       </c>
       <c r="E15">
-        <v>40.00641025641022</v>
+        <v>42.963576990706</v>
       </c>
       <c r="F15">
-        <v>2.744549805858759</v>
+        <v>4.652650189212832</v>
       </c>
       <c r="G15">
-        <v>37.26186045055146</v>
+        <v>38.31092680149317</v>
       </c>
       <c r="H15">
-        <v>34.5173106446927</v>
+        <v>33.65827661228034</v>
       </c>
       <c r="I15">
-        <v>42.75096006226898</v>
+        <v>47.61622717991884</v>
       </c>
       <c r="J15">
-        <v>45.49550986812774</v>
+        <v>52.26887736913167</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -898,31 +898,31 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16">
-        <v>9581</v>
+        <v>619411</v>
       </c>
       <c r="E16">
-        <v>41.23053960964413</v>
+        <v>44.05909081369186</v>
       </c>
       <c r="F16">
-        <v>3.066447900338833</v>
+        <v>5.245797068680192</v>
       </c>
       <c r="G16">
-        <v>38.1640917093053</v>
+        <v>38.81329374501167</v>
       </c>
       <c r="H16">
-        <v>35.09764380896646</v>
+        <v>33.56749667633147</v>
       </c>
       <c r="I16">
-        <v>44.29698750998296</v>
+        <v>49.30488788237205</v>
       </c>
       <c r="J16">
-        <v>47.36343541032179</v>
+        <v>54.55068495105225</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -933,28 +933,156 @@
         <v>12</v>
       </c>
       <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>286</v>
+      </c>
+      <c r="E17">
+        <v>38.46153846153846</v>
+      </c>
+      <c r="F17">
+        <v>2.312571988885682</v>
+      </c>
+      <c r="G17">
+        <v>36.14896647265278</v>
+      </c>
+      <c r="H17">
+        <v>33.83639448376709</v>
+      </c>
+      <c r="I17">
+        <v>40.77411045042414</v>
+      </c>
+      <c r="J17">
+        <v>43.08668243930983</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>1716</v>
+      </c>
+      <c r="E18">
+        <v>40.00641025641022</v>
+      </c>
+      <c r="F18">
+        <v>2.744549805858759</v>
+      </c>
+      <c r="G18">
+        <v>37.26186045055146</v>
+      </c>
+      <c r="H18">
+        <v>34.5173106446927</v>
+      </c>
+      <c r="I18">
+        <v>42.75096006226898</v>
+      </c>
+      <c r="J18">
+        <v>45.49550986812774</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>9581</v>
+      </c>
+      <c r="E19">
+        <v>41.23053960964413</v>
+      </c>
+      <c r="F19">
+        <v>3.066447900338833</v>
+      </c>
+      <c r="G19">
+        <v>38.1640917093053</v>
+      </c>
+      <c r="H19">
+        <v>35.09764380896646</v>
+      </c>
+      <c r="I19">
+        <v>44.29698750998296</v>
+      </c>
+      <c r="J19">
+        <v>47.36343541032179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20">
         <v>4</v>
       </c>
-      <c r="D17">
+      <c r="D20">
         <v>46618</v>
       </c>
-      <c r="E17">
+      <c r="E20">
         <v>41.45608777725337</v>
       </c>
-      <c r="F17">
+      <c r="F20">
         <v>3.695994151402893</v>
       </c>
-      <c r="G17">
+      <c r="G20">
         <v>37.76009362585048</v>
       </c>
-      <c r="H17">
+      <c r="H20">
         <v>34.06409947444759</v>
       </c>
-      <c r="I17">
+      <c r="I20">
         <v>45.15208192865627</v>
       </c>
-      <c r="J17">
+      <c r="J20">
         <v>48.84807608005916</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>200343</v>
+      </c>
+      <c r="E21">
+        <v>41.46616702355448</v>
+      </c>
+      <c r="F21">
+        <v>3.723719438780323</v>
+      </c>
+      <c r="G21">
+        <v>37.74244758477416</v>
+      </c>
+      <c r="H21">
+        <v>34.01872814599383</v>
+      </c>
+      <c r="I21">
+        <v>45.1898864623348</v>
+      </c>
+      <c r="J21">
+        <v>48.91360590111513</v>
       </c>
     </row>
   </sheetData>
